--- a/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -794,88 +794,85 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>0.07229677466696775</v>
+        <v>0.05774549231412691</v>
       </c>
       <c r="D4">
-        <v>0.00151221894312219</v>
+        <v>0.01163344423018785</v>
       </c>
       <c r="E4">
-        <v>0.1148673659366737</v>
+        <v>0.0719388067645933</v>
       </c>
       <c r="F4">
-        <v>-0.02080178648801786</v>
+        <v>-0.07248888843896703</v>
       </c>
       <c r="G4">
-        <v>-0.02839591978523298</v>
-      </c>
-      <c r="H4">
-        <v>0.02687697734561299</v>
+        <v>-0.02724720969500476</v>
       </c>
       <c r="I4">
-        <v>-0.02201911194419112</v>
+        <v>-0.02811404380865377</v>
       </c>
       <c r="J4">
-        <v>0.01970236550676877</v>
+        <v>0.01680537510461044</v>
       </c>
       <c r="K4">
-        <v>-0.001355100565551006</v>
+        <v>-0.001293524094694062</v>
       </c>
       <c r="L4">
-        <v>0.003926988123269881</v>
+        <v>-0.03003220491408643</v>
       </c>
       <c r="M4">
-        <v>-0.001355100565551006</v>
+        <v>-0.001293524094694062</v>
       </c>
       <c r="N4">
-        <v>-0.001355100565551006</v>
+        <v>-0.001293524094694062</v>
+      </c>
+      <c r="O4">
+        <v>-0.001293524094694062</v>
       </c>
       <c r="P4">
-        <v>-0.0418302397063024</v>
+        <v>-0.06225900319219035</v>
       </c>
       <c r="Q4">
-        <v>-0.001630182472301825</v>
+        <v>-0.02866712357281629</v>
       </c>
       <c r="R4">
-        <v>-0.001630182472301825</v>
+        <v>-0.02866712357281629</v>
       </c>
       <c r="S4">
-        <v>-0.001630182472301825</v>
+        <v>-0.02866712357281629</v>
       </c>
       <c r="T4">
-        <v>-0.001630182472301825</v>
+        <v>-0.02866712357281629</v>
       </c>
       <c r="U4">
-        <v>0.06962242996822431</v>
+        <v>0.03253945672704765</v>
       </c>
       <c r="V4">
-        <v>0.8179229573232296</v>
+        <v>0.1239348182464094</v>
       </c>
       <c r="W4">
-        <v>-5.26730405267304E-05</v>
+        <v>0.0284733846965729</v>
       </c>
       <c r="X4">
-        <v>-0.06147008680565674</v>
-      </c>
-      <c r="Y4">
-        <v>-0.009979343277633295</v>
+        <v>-0.05669564145996858</v>
       </c>
       <c r="Z4">
-        <v>-0.07290283293302832</v>
+        <v>-0.04677170262272283</v>
       </c>
       <c r="AA4">
-        <v>0.001785870053858701</v>
+        <v>-0.007195151339062534</v>
       </c>
       <c r="AB4">
-        <v>0.001496048342960483</v>
+        <v>-0.004052204434659262</v>
       </c>
       <c r="AC4">
-        <v>0.001785870053858701</v>
+        <v>-0.007195151339062534</v>
       </c>
       <c r="AD4">
-        <v>0.001785870053858701</v>
+        <v>-0.007195151339062534</v>
       </c>
       <c r="AE4">
-        <v>0.01101393429773033</v>
+        <v>-0.007195151339062534</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -884,88 +881,85 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>0.0301770204377702</v>
+        <v>0.02909763180569478</v>
       </c>
       <c r="D5">
-        <v>0.0009778538137785381</v>
+        <v>0.004885310680468746</v>
       </c>
       <c r="E5">
-        <v>0.04309902440299025</v>
+        <v>0.02487312126568112</v>
       </c>
       <c r="F5">
-        <v>-0.0001957954939579549</v>
+        <v>-0.03023501700227823</v>
       </c>
       <c r="G5">
-        <v>-0.02371421536533251</v>
-      </c>
-      <c r="H5">
-        <v>0.01691932757018741</v>
+        <v>-0.04887971274370258</v>
       </c>
       <c r="I5">
-        <v>-0.007636325428363255</v>
+        <v>-0.01513723543493804</v>
       </c>
       <c r="J5">
-        <v>0.0004428683102661437</v>
+        <v>0.01421799212620239</v>
       </c>
       <c r="K5">
-        <v>0.003142407259424073</v>
+        <v>-0.0009839914917295692</v>
       </c>
       <c r="L5">
-        <v>0.005112758667127587</v>
+        <v>-0.02618131686260304</v>
       </c>
       <c r="M5">
-        <v>0.003142407259424073</v>
+        <v>-0.0009839914917295692</v>
       </c>
       <c r="N5">
-        <v>0.003142407259424073</v>
+        <v>-0.0009839914917295692</v>
+      </c>
+      <c r="O5">
+        <v>-0.0009839914917295692</v>
       </c>
       <c r="P5">
-        <v>-0.008382872711828727</v>
+        <v>-0.01728814533728906</v>
       </c>
       <c r="Q5">
-        <v>0.006317255955172559</v>
+        <v>-0.01485831765280867</v>
       </c>
       <c r="R5">
-        <v>0.006317255955172559</v>
+        <v>-0.01485831765280867</v>
       </c>
       <c r="S5">
-        <v>0.006317255955172559</v>
+        <v>-0.01485831765280867</v>
       </c>
       <c r="T5">
-        <v>0.006317255955172559</v>
+        <v>-0.01485831765280867</v>
       </c>
       <c r="U5">
-        <v>0.05404514715645146</v>
+        <v>0.06018406380044414</v>
       </c>
       <c r="V5">
-        <v>0.3310791490187915</v>
+        <v>0.35301388945525</v>
       </c>
       <c r="W5">
-        <v>0.004095142096951421</v>
+        <v>-0.003052469176222121</v>
       </c>
       <c r="X5">
-        <v>-0.0232754226487979</v>
-      </c>
-      <c r="Y5">
-        <v>-0.01184129122707485</v>
+        <v>-0.0381772012432632</v>
       </c>
       <c r="Z5">
-        <v>-0.02865444880654449</v>
+        <v>-0.03953935587458257</v>
       </c>
       <c r="AA5">
-        <v>-0.01580078579000786</v>
+        <v>-0.01070663659615478</v>
       </c>
       <c r="AB5">
-        <v>-0.01604371656443717</v>
+        <v>-0.009755253902774838</v>
       </c>
       <c r="AC5">
-        <v>-0.01580078579000786</v>
+        <v>-0.01070663659615478</v>
       </c>
       <c r="AD5">
-        <v>-0.01580078579000786</v>
+        <v>-0.01070663659615478</v>
       </c>
       <c r="AE5">
-        <v>-0.009362072402497609</v>
+        <v>-0.01070663659615478</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -974,88 +968,85 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0.2987079038750791</v>
+        <v>0.2856876041492112</v>
       </c>
       <c r="D6">
-        <v>-0.02621256331012563</v>
+        <v>-0.008021390934870594</v>
       </c>
       <c r="E6">
-        <v>0.01331118609711186</v>
+        <v>0.01476017576770114</v>
       </c>
       <c r="F6">
-        <v>-0.007366172629661726</v>
+        <v>-0.01217436085763314</v>
       </c>
       <c r="G6">
-        <v>0.005741178744835623</v>
-      </c>
-      <c r="H6">
-        <v>-0.006084490143431636</v>
+        <v>0.02794108986029919</v>
       </c>
       <c r="I6">
-        <v>-0.5914125853541259</v>
+        <v>-0.5718272543098376</v>
       </c>
       <c r="J6">
-        <v>-0.001138343854106427</v>
+        <v>-0.03700826158866284</v>
       </c>
       <c r="K6">
-        <v>-0.02801183905611839</v>
+        <v>-0.02380044436936381</v>
       </c>
       <c r="L6">
-        <v>-0.02908058851480588</v>
+        <v>-0.0231072158774197</v>
       </c>
       <c r="M6">
-        <v>-0.02801183905611839</v>
+        <v>-0.02380044436936381</v>
       </c>
       <c r="N6">
-        <v>-0.02801183905611839</v>
+        <v>-0.02380044436936381</v>
+      </c>
+      <c r="O6">
+        <v>-0.02380044436936381</v>
       </c>
       <c r="P6">
-        <v>-0.0131995095239951</v>
+        <v>-0.01554769524152003</v>
       </c>
       <c r="Q6">
-        <v>-0.0260883200248832</v>
+        <v>-0.02553313954759291</v>
       </c>
       <c r="R6">
-        <v>-0.0260883200248832</v>
+        <v>-0.02553313954759291</v>
       </c>
       <c r="S6">
-        <v>-0.0260883200248832</v>
+        <v>-0.02553313954759291</v>
       </c>
       <c r="T6">
-        <v>-0.0260883200248832</v>
+        <v>-0.02553313954759291</v>
       </c>
       <c r="U6">
-        <v>-0.08118660873186609</v>
+        <v>0.05063174726633743</v>
       </c>
       <c r="V6">
-        <v>0.0007385100553851005</v>
+        <v>-0.001714729061058147</v>
       </c>
       <c r="W6">
-        <v>-0.009786350845863507</v>
+        <v>-0.007789020268249064</v>
       </c>
       <c r="X6">
-        <v>-0.01238296106303636</v>
-      </c>
-      <c r="Y6">
-        <v>0.004919222278663995</v>
+        <v>-0.004285646707008957</v>
       </c>
       <c r="Z6">
-        <v>-0.02475633483156335</v>
+        <v>-0.182437806301942</v>
       </c>
       <c r="AA6">
-        <v>0.06789821189498212</v>
+        <v>0.01030789336351825</v>
       </c>
       <c r="AB6">
-        <v>0.06799880159598802</v>
+        <v>0.009745711426223382</v>
       </c>
       <c r="AC6">
-        <v>0.06789821189498212</v>
+        <v>0.01030789336351825</v>
       </c>
       <c r="AD6">
-        <v>0.06789821189498212</v>
+        <v>0.01030789336351825</v>
       </c>
       <c r="AE6">
-        <v>0.07910308137694637</v>
+        <v>0.01030789336351825</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1064,88 +1055,85 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>-0.001412537282125373</v>
+        <v>-0.01845471873612888</v>
       </c>
       <c r="D7">
-        <v>0.02194901197549012</v>
+        <v>-0.001817084985275801</v>
       </c>
       <c r="E7">
-        <v>-0.005919194855191949</v>
+        <v>0.009197779979622685</v>
       </c>
       <c r="F7">
-        <v>0.00532861501728615</v>
+        <v>-0.003757731787480166</v>
       </c>
       <c r="G7">
-        <v>-0.007857690937577017</v>
-      </c>
-      <c r="H7">
-        <v>0.006723984308513529</v>
+        <v>0.02593356047358834</v>
       </c>
       <c r="I7">
-        <v>0.02758606507186065</v>
+        <v>0.02133466343032736</v>
       </c>
       <c r="J7">
-        <v>-0.01725294320211189</v>
+        <v>0.0006140276752904275</v>
       </c>
       <c r="K7">
-        <v>0.007534188795341889</v>
+        <v>-0.008183899191427372</v>
       </c>
       <c r="L7">
-        <v>0.006091385616913857</v>
+        <v>-0.007057006585075077</v>
       </c>
       <c r="M7">
-        <v>0.007534188795341889</v>
+        <v>-0.008183899191427372</v>
       </c>
       <c r="N7">
-        <v>0.007534188795341889</v>
+        <v>-0.008183899191427372</v>
+      </c>
+      <c r="O7">
+        <v>-0.008183899191427372</v>
       </c>
       <c r="P7">
-        <v>0.006575538461755384</v>
+        <v>-0.01045524090739646</v>
       </c>
       <c r="Q7">
-        <v>0.006866881148668812</v>
+        <v>-0.008181146290758778</v>
       </c>
       <c r="R7">
-        <v>0.006866881148668812</v>
+        <v>-0.008181146290758778</v>
       </c>
       <c r="S7">
-        <v>0.006866881148668812</v>
+        <v>-0.008181146290758778</v>
       </c>
       <c r="T7">
-        <v>0.006866881148668812</v>
+        <v>-0.008181146290758778</v>
       </c>
       <c r="U7">
-        <v>0.001572916695729167</v>
+        <v>-0.02601883644615212</v>
       </c>
       <c r="V7">
-        <v>-0.01178187554181876</v>
+        <v>-0.01520914554084237</v>
       </c>
       <c r="W7">
-        <v>0.006604737822047378</v>
+        <v>-0.01403687468302387</v>
       </c>
       <c r="X7">
-        <v>-0.000169748976970521</v>
-      </c>
-      <c r="Y7">
-        <v>-0.004387281633712312</v>
+        <v>0.01987417742350546</v>
       </c>
       <c r="Z7">
-        <v>-0.005738939181389392</v>
+        <v>0.008479557004991976</v>
       </c>
       <c r="AA7">
-        <v>-0.008479574400795744</v>
+        <v>0.008218061477026048</v>
       </c>
       <c r="AB7">
-        <v>-0.008398954691989547</v>
+        <v>0.007249439872461658</v>
       </c>
       <c r="AC7">
-        <v>-0.008479574400795744</v>
+        <v>0.008218061477026048</v>
       </c>
       <c r="AD7">
-        <v>-0.008479574400795744</v>
+        <v>0.008218061477026048</v>
       </c>
       <c r="AE7">
-        <v>0.00389980666294519</v>
+        <v>0.008218061477026048</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1154,88 +1142,85 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.2600756792007568</v>
+        <v>0.2373151488778589</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.004727835887278359</v>
+        <v>-0.01211279535965234</v>
       </c>
       <c r="F8">
-        <v>-0.002693252258932523</v>
+        <v>0.03001540696028332</v>
       </c>
       <c r="G8">
-        <v>0.004027417429523116</v>
-      </c>
-      <c r="H8">
-        <v>-0.006427637872920086</v>
+        <v>-0.03504081138899575</v>
       </c>
       <c r="I8">
-        <v>0.7456860259848603</v>
+        <v>0.7291774900936592</v>
       </c>
       <c r="J8">
-        <v>0.02791910876902747</v>
+        <v>0.02495544084724919</v>
       </c>
       <c r="K8">
-        <v>0.01453367664133677</v>
+        <v>-0.01088523933001436</v>
       </c>
       <c r="L8">
-        <v>0.0181109294411093</v>
+        <v>-0.02663483363504657</v>
       </c>
       <c r="M8">
-        <v>0.01453367664133677</v>
+        <v>-0.01088523933001436</v>
       </c>
       <c r="N8">
-        <v>0.01453367664133677</v>
+        <v>-0.01088523933001436</v>
+      </c>
+      <c r="O8">
+        <v>-0.01088523933001436</v>
       </c>
       <c r="P8">
-        <v>3.616132836161329E-05</v>
+        <v>0.01089677933416095</v>
       </c>
       <c r="Q8">
-        <v>0.01412727526527275</v>
+        <v>-0.01543497709911056</v>
       </c>
       <c r="R8">
-        <v>0.01412727526527275</v>
+        <v>-0.01543497709911056</v>
       </c>
       <c r="S8">
-        <v>0.01412727526527275</v>
+        <v>-0.01543497709911056</v>
       </c>
       <c r="T8">
-        <v>0.01412727526527275</v>
+        <v>-0.01543497709911056</v>
       </c>
       <c r="U8">
-        <v>0.1088480282844803</v>
+        <v>0.00201003027836755</v>
       </c>
       <c r="V8">
-        <v>0.002791022271910223</v>
+        <v>-0.02355521783318974</v>
       </c>
       <c r="W8">
-        <v>0.00441003898410039</v>
+        <v>-0.005373168316908077</v>
       </c>
       <c r="X8">
-        <v>0.01113406856039307</v>
-      </c>
-      <c r="Y8">
-        <v>0.003960365246919267</v>
+        <v>-0.0006113550740889806</v>
       </c>
       <c r="Z8">
-        <v>0.0370667296306673</v>
+        <v>0.2132199289833859</v>
       </c>
       <c r="AA8">
-        <v>-0.06496169714561698</v>
+        <v>0.01255450269551544</v>
       </c>
       <c r="AB8">
-        <v>-0.06540305829003058</v>
+        <v>0.01487675289444792</v>
       </c>
       <c r="AC8">
-        <v>-0.06496169714561698</v>
+        <v>0.01255450269551544</v>
       </c>
       <c r="AD8">
-        <v>-0.06496169714561698</v>
+        <v>0.01255450269551544</v>
       </c>
       <c r="AE8">
-        <v>-0.087264403985113</v>
+        <v>0.01255450269551544</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1246,88 +1231,85 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0.3846919471509195</v>
+        <v>0.3325039551081417</v>
       </c>
       <c r="D9">
-        <v>-0.009849915098499151</v>
+        <v>0.01239129965081354</v>
       </c>
       <c r="E9">
-        <v>0.01321885388418854</v>
+        <v>-0.02195554328798834</v>
       </c>
       <c r="F9">
-        <v>-0.009531715835317159</v>
+        <v>0.02255004824214354</v>
       </c>
       <c r="G9">
-        <v>0.007341162824544964</v>
-      </c>
-      <c r="H9">
-        <v>-0.01268174135380153</v>
+        <v>-0.002507726496108368</v>
       </c>
       <c r="I9">
-        <v>0.001693269160932692</v>
+        <v>-0.005575540802354554</v>
       </c>
       <c r="J9">
-        <v>0.01191006248451547</v>
+        <v>-0.02509301825509596</v>
       </c>
       <c r="K9">
-        <v>-0.007820745294207452</v>
+        <v>0.01862944277336145</v>
       </c>
       <c r="L9">
-        <v>-0.007130132711301328</v>
+        <v>0.007456725202359872</v>
       </c>
       <c r="M9">
-        <v>-0.007820745294207452</v>
+        <v>0.01862944277336145</v>
       </c>
       <c r="N9">
-        <v>-0.007820745294207452</v>
+        <v>0.01862944277336145</v>
+      </c>
+      <c r="O9">
+        <v>0.01862944277336145</v>
       </c>
       <c r="P9">
-        <v>-0.01051462930514629</v>
+        <v>0.0223321566260114</v>
       </c>
       <c r="Q9">
-        <v>-0.006818153384181533</v>
+        <v>0.01583217132881039</v>
       </c>
       <c r="R9">
-        <v>-0.006818153384181533</v>
+        <v>0.01583217132881039</v>
       </c>
       <c r="S9">
-        <v>-0.006818153384181533</v>
+        <v>0.01583217132881039</v>
       </c>
       <c r="T9">
-        <v>-0.006818153384181533</v>
+        <v>0.01583217132881039</v>
       </c>
       <c r="U9">
-        <v>0.1434326571183266</v>
+        <v>0.26967878445263</v>
       </c>
       <c r="V9">
-        <v>0.01090738292507383</v>
+        <v>-0.003225614688795007</v>
       </c>
       <c r="W9">
-        <v>-0.005982453335824534</v>
+        <v>0.006197715551918921</v>
       </c>
       <c r="X9">
-        <v>0.01638320975851225</v>
-      </c>
-      <c r="Y9">
-        <v>0.01980944263236639</v>
+        <v>-0.0198698424947185</v>
       </c>
       <c r="Z9">
-        <v>0.01713141845131419</v>
+        <v>0.008329899619847923</v>
       </c>
       <c r="AA9">
-        <v>0.01157552735575527</v>
+        <v>-0.009745006408240704</v>
       </c>
       <c r="AB9">
-        <v>0.01137416089774161</v>
+        <v>-0.007304607284370293</v>
       </c>
       <c r="AC9">
-        <v>0.01157552735575527</v>
+        <v>-0.009745006408240704</v>
       </c>
       <c r="AD9">
-        <v>0.01157552735575527</v>
+        <v>-0.009745006408240704</v>
       </c>
       <c r="AE9">
-        <v>-0.01074579569302207</v>
+        <v>-0.009745006408240704</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1338,88 +1320,85 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>0.226272797142728</v>
+        <v>0.1730994114128994</v>
       </c>
       <c r="D10">
-        <v>-0.006061106124611061</v>
+        <v>0.02330199562795633</v>
       </c>
       <c r="E10">
-        <v>0.006436251796362519</v>
+        <v>-0.008764408980422968</v>
       </c>
       <c r="F10">
-        <v>-0.003475287214752872</v>
+        <v>-0.01569318389779335</v>
       </c>
       <c r="G10">
-        <v>0.004275790766243118</v>
-      </c>
-      <c r="H10">
-        <v>-0.0008958334148011646</v>
+        <v>0.01236355763929086</v>
       </c>
       <c r="I10">
-        <v>-0.0112702598447026</v>
+        <v>0.0323070961968405</v>
       </c>
       <c r="J10">
-        <v>-0.001618282876897084</v>
+        <v>0.02165264123646621</v>
       </c>
       <c r="K10">
-        <v>-0.005858526562585267</v>
+        <v>0.01694003498925259</v>
       </c>
       <c r="L10">
-        <v>-0.00416327492963275</v>
+        <v>0.01074808939269537</v>
       </c>
       <c r="M10">
-        <v>-0.005858526562585267</v>
+        <v>0.01694003498925259</v>
       </c>
       <c r="N10">
-        <v>-0.005858526562585267</v>
+        <v>0.01694003498925259</v>
+      </c>
+      <c r="O10">
+        <v>0.01694003498925259</v>
       </c>
       <c r="P10">
-        <v>-0.005423245902232458</v>
+        <v>0.006086449812884214</v>
       </c>
       <c r="Q10">
-        <v>-0.0055850900118509</v>
+        <v>0.01327576724842243</v>
       </c>
       <c r="R10">
-        <v>-0.0055850900118509</v>
+        <v>0.01327576724842243</v>
       </c>
       <c r="S10">
-        <v>-0.0055850900118509</v>
+        <v>0.01327576724842243</v>
       </c>
       <c r="T10">
-        <v>-0.0055850900118509</v>
+        <v>0.01327576724842243</v>
       </c>
       <c r="U10">
-        <v>-0.3163162315031623</v>
+        <v>-0.2567769442989967</v>
       </c>
       <c r="V10">
-        <v>0.009397742457977424</v>
+        <v>0.003010923657181324</v>
       </c>
       <c r="W10">
-        <v>0.008140205901402058</v>
+        <v>0.003084380757424103</v>
       </c>
       <c r="X10">
-        <v>0.004534931583273673</v>
-      </c>
-      <c r="Y10">
-        <v>0.002034706735602334</v>
+        <v>-0.01333840598741574</v>
       </c>
       <c r="Z10">
-        <v>0.005048416526484165</v>
+        <v>0.007553784686573298</v>
       </c>
       <c r="AA10">
-        <v>0.003872436662724366</v>
+        <v>-0.005281446892722899</v>
       </c>
       <c r="AB10">
-        <v>0.003606077556060775</v>
+        <v>-0.004670937100800354</v>
       </c>
       <c r="AC10">
-        <v>0.003872436662724366</v>
+        <v>-0.005281446892722899</v>
       </c>
       <c r="AD10">
-        <v>0.003872436662724366</v>
+        <v>-0.005281446892722899</v>
       </c>
       <c r="AE10">
-        <v>0.001400546112826271</v>
+        <v>-0.005281446892722899</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1430,88 +1409,85 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0.3949445583734456</v>
+        <v>0.3460512724602099</v>
       </c>
       <c r="D11">
-        <v>-1.081171210811712E-05</v>
+        <v>-0.005346727176371919</v>
       </c>
       <c r="E11">
-        <v>-0.0248349301403493</v>
+        <v>-0.003098844206243435</v>
       </c>
       <c r="F11">
-        <v>0.021436499710365</v>
+        <v>-0.003200163133229564</v>
       </c>
       <c r="G11">
-        <v>-0.01530184530000889</v>
-      </c>
-      <c r="H11">
-        <v>0.01940175977272106</v>
+        <v>0.004937462392320294</v>
       </c>
       <c r="I11">
-        <v>0.008615029646150298</v>
+        <v>-0.01211490228578423</v>
       </c>
       <c r="J11">
-        <v>-0.01155589853550441</v>
+        <v>0.01378035080643993</v>
       </c>
       <c r="K11">
-        <v>0.02017562776575628</v>
+        <v>-0.0005295414217776646</v>
       </c>
       <c r="L11">
-        <v>0.01816587562965876</v>
+        <v>-0.002796623554839292</v>
       </c>
       <c r="M11">
-        <v>0.02017562776575628</v>
+        <v>-0.0005295414217776646</v>
       </c>
       <c r="N11">
-        <v>0.02017562776575628</v>
+        <v>-0.0005295414217776646</v>
+      </c>
+      <c r="O11">
+        <v>-0.0005295414217776646</v>
       </c>
       <c r="P11">
-        <v>0.02325087446850874</v>
+        <v>0.002534442020506598</v>
       </c>
       <c r="Q11">
-        <v>0.02067716642677167</v>
+        <v>-0.004601867012674389</v>
       </c>
       <c r="R11">
-        <v>0.02067716642677167</v>
+        <v>-0.004601867012674389</v>
       </c>
       <c r="S11">
-        <v>0.02067716642677167</v>
+        <v>-0.004601867012674389</v>
       </c>
       <c r="T11">
-        <v>0.02067716642677167</v>
+        <v>-0.004601867012674389</v>
       </c>
       <c r="U11">
-        <v>0.6590867370148673</v>
+        <v>0.5194269586202227</v>
       </c>
       <c r="V11">
-        <v>-0.01559633546396335</v>
+        <v>-0.01174106268179757</v>
       </c>
       <c r="W11">
-        <v>-0.0003025151790251518</v>
+        <v>-0.01575843344521812</v>
       </c>
       <c r="X11">
-        <v>-0.007398132382373244</v>
-      </c>
-      <c r="Y11">
-        <v>-0.01245834106799228</v>
+        <v>0.01190535900050095</v>
       </c>
       <c r="Z11">
-        <v>-0.005978530187785302</v>
+        <v>-0.006300654436742408</v>
       </c>
       <c r="AA11">
-        <v>-0.01362912670029127</v>
+        <v>0.01245787379871103</v>
       </c>
       <c r="AB11">
-        <v>-0.01326268791662688</v>
+        <v>0.0145622556438817</v>
       </c>
       <c r="AC11">
-        <v>-0.01362912670029127</v>
+        <v>0.01245787379871103</v>
       </c>
       <c r="AD11">
-        <v>-0.01362912670029127</v>
+        <v>0.01245787379871103</v>
       </c>
       <c r="AE11">
-        <v>0.002642537016599009</v>
+        <v>0.01245787379871103</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1522,88 +1498,85 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>0.01186682302666823</v>
+        <v>0.001340457001198986</v>
       </c>
       <c r="D12">
-        <v>0.01840892352408923</v>
+        <v>0.00271990374366734</v>
       </c>
       <c r="E12">
-        <v>-0.003343617405436174</v>
+        <v>-0.01011722100953861</v>
       </c>
       <c r="F12">
-        <v>0.009082458078824582</v>
+        <v>-0.004581479179986712</v>
       </c>
       <c r="G12">
-        <v>-0.003333382596487335</v>
-      </c>
-      <c r="H12">
-        <v>0.007840748477248558</v>
+        <v>0.002184407295220255</v>
       </c>
       <c r="I12">
-        <v>0.005903584691035847</v>
+        <v>0.002525394826912162</v>
       </c>
       <c r="J12">
-        <v>0.007338055375826145</v>
+        <v>-0.0005654689441278801</v>
       </c>
       <c r="K12">
-        <v>0.003707221933072219</v>
+        <v>0.02116607505347116</v>
       </c>
       <c r="L12">
-        <v>0.001260540108605401</v>
+        <v>0.02160811235998487</v>
       </c>
       <c r="M12">
-        <v>0.003707221933072219</v>
+        <v>0.02116607505347116</v>
       </c>
       <c r="N12">
-        <v>0.003707221933072219</v>
+        <v>0.02116607505347116</v>
+      </c>
+      <c r="O12">
+        <v>0.02116607505347116</v>
       </c>
       <c r="P12">
-        <v>0.007139304131393041</v>
+        <v>0.01017192994722079</v>
       </c>
       <c r="Q12">
-        <v>0.006000325308003254</v>
+        <v>0.01936079530073296</v>
       </c>
       <c r="R12">
-        <v>0.006000325308003254</v>
+        <v>0.01936079530073296</v>
       </c>
       <c r="S12">
-        <v>0.006000325308003254</v>
+        <v>0.01936079530073296</v>
       </c>
       <c r="T12">
-        <v>0.006000325308003254</v>
+        <v>0.01936079530073296</v>
       </c>
       <c r="U12">
-        <v>0.01047974367279744</v>
+        <v>-0.0003539167851476253</v>
       </c>
       <c r="V12">
-        <v>0.02019016236990162</v>
+        <v>-0.0009282591965992743</v>
       </c>
       <c r="W12">
-        <v>0.02040469407604694</v>
+        <v>-0.01042410123516975</v>
       </c>
       <c r="X12">
-        <v>-0.02055214372653658</v>
-      </c>
-      <c r="Y12">
-        <v>-0.001636362785539551</v>
+        <v>-0.01007389297447931</v>
       </c>
       <c r="Z12">
-        <v>-0.009545360195453602</v>
+        <v>-0.008589163455033067</v>
       </c>
       <c r="AA12">
-        <v>0.002728112079281121</v>
+        <v>0.001557421298905888</v>
       </c>
       <c r="AB12">
-        <v>0.003003429426034294</v>
+        <v>0.003482546868403176</v>
       </c>
       <c r="AC12">
-        <v>0.002728112079281121</v>
+        <v>0.001557421298905888</v>
       </c>
       <c r="AD12">
-        <v>0.002728112079281121</v>
+        <v>0.001557421298905888</v>
       </c>
       <c r="AE12">
-        <v>-0.004129897681049607</v>
+        <v>0.001557421298905888</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1614,88 +1587,85 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>-0.006245978846459789</v>
+        <v>0.002273776230460652</v>
       </c>
       <c r="D13">
-        <v>-0.02004360854043609</v>
+        <v>-0.00472454308449015</v>
       </c>
       <c r="E13">
-        <v>0.003192328483923285</v>
+        <v>-0.00144172389147719</v>
       </c>
       <c r="F13">
-        <v>-0.003243927056439271</v>
+        <v>0.004629113040566243</v>
       </c>
       <c r="G13">
-        <v>0.007608282714977876</v>
-      </c>
-      <c r="H13">
-        <v>0.004634421029419005</v>
+        <v>0.01051080854418256</v>
       </c>
       <c r="I13">
-        <v>-0.01155943241559433</v>
+        <v>-0.009921447096295732</v>
       </c>
       <c r="J13">
-        <v>0.008286174837241089</v>
+        <v>0.001163743765842004</v>
       </c>
       <c r="K13">
-        <v>0.01093515229335152</v>
+        <v>0.003708755062197394</v>
       </c>
       <c r="L13">
-        <v>0.01436170667961707</v>
+        <v>0.004089154327635677</v>
       </c>
       <c r="M13">
-        <v>0.01093515229335152</v>
+        <v>0.003708755062197394</v>
       </c>
       <c r="N13">
-        <v>0.01093515229335152</v>
+        <v>0.003708755062197394</v>
+      </c>
+      <c r="O13">
+        <v>0.003708755062197394</v>
       </c>
       <c r="P13">
-        <v>-0.002315439443154394</v>
+        <v>0.0020440096881031</v>
       </c>
       <c r="Q13">
-        <v>0.008235889786358898</v>
+        <v>0.003509558077147151</v>
       </c>
       <c r="R13">
-        <v>0.008235889786358898</v>
+        <v>0.003509558077147151</v>
       </c>
       <c r="S13">
-        <v>0.008235889786358898</v>
+        <v>0.003509558077147151</v>
       </c>
       <c r="T13">
-        <v>0.008235889786358898</v>
+        <v>0.003509558077147151</v>
       </c>
       <c r="U13">
-        <v>0.02471081257910812</v>
+        <v>-0.007235084000427198</v>
       </c>
       <c r="V13">
-        <v>0.01068863374688634</v>
+        <v>0.004119287084892896</v>
       </c>
       <c r="W13">
-        <v>-0.00784635810646358</v>
+        <v>-0.01230558272086842</v>
       </c>
       <c r="X13">
-        <v>-0.01211856621224488</v>
-      </c>
-      <c r="Y13">
-        <v>-0.01030635850381565</v>
+        <v>0.002424200389730051</v>
       </c>
       <c r="Z13">
-        <v>-0.01991911110719111</v>
+        <v>-0.01096526323858158</v>
       </c>
       <c r="AA13">
-        <v>-0.008638488590384887</v>
+        <v>0.01792562009348444</v>
       </c>
       <c r="AB13">
-        <v>-0.009026762394267623</v>
+        <v>0.01907966222158984</v>
       </c>
       <c r="AC13">
-        <v>-0.008638488590384887</v>
+        <v>0.01792562009348444</v>
       </c>
       <c r="AD13">
-        <v>-0.008638488590384887</v>
+        <v>0.01792562009348444</v>
       </c>
       <c r="AE13">
-        <v>-0.0162504705382168</v>
+        <v>0.01792562009348444</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1704,88 +1674,85 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>-0.3584092708280927</v>
+        <v>-0.2980872895575472</v>
       </c>
       <c r="D14">
-        <v>-0.003031562910315629</v>
+        <v>-0.009910896116580822</v>
       </c>
       <c r="E14">
-        <v>-0.002605964906059649</v>
+        <v>0.00336192914266882</v>
       </c>
       <c r="F14">
-        <v>0.003612882300128823</v>
+        <v>-0.006555080633130895</v>
       </c>
       <c r="G14">
-        <v>-0.002750134413515548</v>
-      </c>
-      <c r="H14">
-        <v>0.009039718809542626</v>
+        <v>0.01080850737382979</v>
       </c>
       <c r="I14">
-        <v>-0.01382778354627784</v>
+        <v>-0.003475533217037445</v>
       </c>
       <c r="J14">
-        <v>0.001300743252404216</v>
+        <v>0.0242237176187383</v>
       </c>
       <c r="K14">
-        <v>0.004902259189022592</v>
+        <v>-0.01311111366880925</v>
       </c>
       <c r="L14">
-        <v>0.003413176534131765</v>
+        <v>-0.01094380580397464</v>
       </c>
       <c r="M14">
-        <v>0.004902259189022592</v>
+        <v>-0.01311111366880925</v>
       </c>
       <c r="N14">
-        <v>0.004902259189022592</v>
+        <v>-0.01311111366880925</v>
+      </c>
+      <c r="O14">
+        <v>-0.01311111366880925</v>
       </c>
       <c r="P14">
-        <v>0.004742243147422431</v>
+        <v>-0.006568699583168752</v>
       </c>
       <c r="Q14">
-        <v>0.004646994598469946</v>
+        <v>-0.01359077440267241</v>
       </c>
       <c r="R14">
-        <v>0.004646994598469946</v>
+        <v>-0.01359077440267241</v>
       </c>
       <c r="S14">
-        <v>0.004646994598469946</v>
+        <v>-0.01359077440267241</v>
       </c>
       <c r="T14">
-        <v>0.004646994598469946</v>
+        <v>-0.01359077440267241</v>
       </c>
       <c r="U14">
-        <v>-0.02152767695927677</v>
+        <v>-0.03071199873320343</v>
       </c>
       <c r="V14">
-        <v>0.007581768507817685</v>
+        <v>-0.005582802865939981</v>
       </c>
       <c r="W14">
-        <v>-0.01134163139341631</v>
+        <v>0.008729790789735115</v>
       </c>
       <c r="X14">
-        <v>-0.005283952413240442</v>
-      </c>
-      <c r="Y14">
-        <v>-0.01094604816696712</v>
+        <v>0.009864759916720303</v>
       </c>
       <c r="Z14">
-        <v>-0.006913144161131441</v>
+        <v>0.0185082678251057</v>
       </c>
       <c r="AA14">
-        <v>-0.005122974567229746</v>
+        <v>-0.001110827697484057</v>
       </c>
       <c r="AB14">
-        <v>-0.005073503486735034</v>
+        <v>-0.002610898471751012</v>
       </c>
       <c r="AC14">
-        <v>-0.005122974567229746</v>
+        <v>-0.001110827697484057</v>
       </c>
       <c r="AD14">
-        <v>-0.005122974567229746</v>
+        <v>-0.001110827697484057</v>
       </c>
       <c r="AE14">
-        <v>-0.01633760612701976</v>
+        <v>-0.001110827697484057</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1796,88 +1763,85 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>0.03517033410370334</v>
+        <v>-0.008791094095578057</v>
       </c>
       <c r="D15">
-        <v>-0.002824025776240258</v>
+        <v>-0.01511295026770013</v>
       </c>
       <c r="E15">
-        <v>0.008084527544845276</v>
+        <v>-0.02257463395173224</v>
       </c>
       <c r="F15">
-        <v>-0.006200292770002928</v>
+        <v>0.01233148406230514</v>
       </c>
       <c r="G15">
-        <v>-0.0005109342621456455</v>
-      </c>
-      <c r="H15">
-        <v>-0.003819565903171813</v>
+        <v>0.001499163448400956</v>
       </c>
       <c r="I15">
-        <v>-0.007468591922685919</v>
+        <v>-0.01577755361885764</v>
       </c>
       <c r="J15">
-        <v>0.004560580480527653</v>
+        <v>-0.001666842061919012</v>
       </c>
       <c r="K15">
-        <v>-0.00745085899450859</v>
+        <v>0.03143471662371694</v>
       </c>
       <c r="L15">
-        <v>-0.006902855829028559</v>
+        <v>0.02712865778920573</v>
       </c>
       <c r="M15">
-        <v>-0.00745085899450859</v>
+        <v>0.03143471662371694</v>
       </c>
       <c r="N15">
-        <v>-0.00745085899450859</v>
+        <v>0.03143471662371694</v>
+      </c>
+      <c r="O15">
+        <v>0.03143471662371694</v>
       </c>
       <c r="P15">
-        <v>-0.006018364872183649</v>
+        <v>0.02362374905644801</v>
       </c>
       <c r="Q15">
-        <v>-0.005962140839621408</v>
+        <v>0.03082681184357853</v>
       </c>
       <c r="R15">
-        <v>-0.005962140839621408</v>
+        <v>0.03082681184357853</v>
       </c>
       <c r="S15">
-        <v>-0.005962140839621408</v>
+        <v>0.03082681184357853</v>
       </c>
       <c r="T15">
-        <v>-0.005962140839621408</v>
+        <v>0.03082681184357853</v>
       </c>
       <c r="U15">
-        <v>0.04238497154784972</v>
+        <v>0.01225278937865776</v>
       </c>
       <c r="V15">
-        <v>-0.0007382778433827785</v>
+        <v>0.002268295606668861</v>
       </c>
       <c r="W15">
-        <v>-0.00125923695659237</v>
+        <v>0.007778731994499472</v>
       </c>
       <c r="X15">
-        <v>0.01841215426224479</v>
-      </c>
-      <c r="Y15">
-        <v>0.002347200986238794</v>
+        <v>-0.02150050208380663</v>
       </c>
       <c r="Z15">
-        <v>0.01080099832800998</v>
+        <v>-0.003871679939398674</v>
       </c>
       <c r="AA15">
-        <v>-0.004081529056815291</v>
+        <v>-0.01020442121921751</v>
       </c>
       <c r="AB15">
-        <v>-0.004216890834168908</v>
+        <v>-0.008379205895377018</v>
       </c>
       <c r="AC15">
-        <v>-0.004081529056815291</v>
+        <v>-0.01020442121921751</v>
       </c>
       <c r="AD15">
-        <v>-0.004081529056815291</v>
+        <v>-0.01020442121921751</v>
       </c>
       <c r="AE15">
-        <v>-0.008520603355827402</v>
+        <v>-0.01020442121921751</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1888,88 +1852,85 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>-0.02191936429519364</v>
+        <v>0.01087101126088196</v>
       </c>
       <c r="D16">
-        <v>0.0007758225677582258</v>
+        <v>0.009590481582307483</v>
       </c>
       <c r="E16">
-        <v>-0.02536120544561206</v>
+        <v>0.009200555441987803</v>
       </c>
       <c r="F16">
-        <v>0.0220234701882347</v>
+        <v>0.004343655776390831</v>
       </c>
       <c r="G16">
-        <v>-0.01949667728018013</v>
-      </c>
-      <c r="H16">
-        <v>0.02278059986012428</v>
+        <v>-0.00926811212140637</v>
       </c>
       <c r="I16">
-        <v>0.0003204131192041312</v>
+        <v>-0.01114313624402896</v>
       </c>
       <c r="J16">
-        <v>0.0007632140207987153</v>
+        <v>0.007515225974736084</v>
       </c>
       <c r="K16">
-        <v>0.01875634127556341</v>
+        <v>-0.01170023810939061</v>
       </c>
       <c r="L16">
-        <v>0.0172603502326035</v>
+        <v>-0.009446836819219628</v>
       </c>
       <c r="M16">
-        <v>0.01875634127556341</v>
+        <v>-0.01170023810939061</v>
       </c>
       <c r="N16">
-        <v>0.01875634127556341</v>
+        <v>-0.01170023810939061</v>
+      </c>
+      <c r="O16">
+        <v>-0.01170023810939061</v>
       </c>
       <c r="P16">
-        <v>0.02344427190644272</v>
+        <v>-0.007549443685369685</v>
       </c>
       <c r="Q16">
-        <v>0.01890600694506007</v>
+        <v>-0.009198181839405694</v>
       </c>
       <c r="R16">
-        <v>0.01890600694506007</v>
+        <v>-0.009198181839405694</v>
       </c>
       <c r="S16">
-        <v>0.01890600694506007</v>
+        <v>-0.009198181839405694</v>
       </c>
       <c r="T16">
-        <v>0.01890600694506007</v>
+        <v>-0.009198181839405694</v>
       </c>
       <c r="U16">
-        <v>-0.03028211777082118</v>
+        <v>-0.003557442872372077</v>
       </c>
       <c r="V16">
-        <v>-0.01486930914469309</v>
+        <v>0.02625001979765514</v>
       </c>
       <c r="W16">
-        <v>0.009724178341241785</v>
+        <v>0.01793623287262896</v>
       </c>
       <c r="X16">
-        <v>-0.007065338020370564</v>
-      </c>
-      <c r="Y16">
-        <v>-0.02142831174545642</v>
+        <v>-0.00266212857233631</v>
       </c>
       <c r="Z16">
-        <v>-0.01007976080879761</v>
+        <v>-0.004505524317763564</v>
       </c>
       <c r="AA16">
-        <v>-0.01956189205561892</v>
+        <v>-0.006706716721100509</v>
       </c>
       <c r="AB16">
-        <v>-0.01931855509318555</v>
+        <v>-0.008185945252361394</v>
       </c>
       <c r="AC16">
-        <v>-0.01956189205561892</v>
+        <v>-0.006706716721100509</v>
       </c>
       <c r="AD16">
-        <v>-0.01956189205561892</v>
+        <v>-0.006706716721100509</v>
       </c>
       <c r="AE16">
-        <v>-0.01208051979816614</v>
+        <v>-0.006706716721100509</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -1980,88 +1941,85 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <v>0.02506179259061793</v>
+        <v>0.02783207393814102</v>
       </c>
       <c r="D17">
-        <v>0.01176501519365015</v>
+        <v>0.003199417756435714</v>
       </c>
       <c r="E17">
-        <v>0.01334179575741796</v>
+        <v>0.0121990599829551</v>
       </c>
       <c r="F17">
-        <v>-0.01103054245430543</v>
+        <v>-0.002580775617350239</v>
       </c>
       <c r="G17">
-        <v>0.003300406882040187</v>
-      </c>
-      <c r="H17">
-        <v>-0.01335675485549909</v>
+        <v>-0.0007083480517145314</v>
       </c>
       <c r="I17">
-        <v>-0.00700013799400138</v>
+        <v>-0.005785835479534022</v>
       </c>
       <c r="J17">
-        <v>-0.01279896541309256</v>
+        <v>0.01005310842287679</v>
       </c>
       <c r="K17">
-        <v>-0.01597539326775393</v>
+        <v>-0.01815240405430009</v>
       </c>
       <c r="L17">
-        <v>-0.01786156445861564</v>
+        <v>-0.01730133617563201</v>
       </c>
       <c r="M17">
-        <v>-0.01597539326775393</v>
+        <v>-0.01815240405430009</v>
       </c>
       <c r="N17">
-        <v>-0.01597539326775393</v>
+        <v>-0.01815240405430009</v>
+      </c>
+      <c r="O17">
+        <v>-0.01815240405430009</v>
       </c>
       <c r="P17">
-        <v>-0.01351919875519199</v>
+        <v>-0.01216062559574364</v>
       </c>
       <c r="Q17">
-        <v>-0.01491487717714877</v>
+        <v>-0.0183309308818308</v>
       </c>
       <c r="R17">
-        <v>-0.01491487717714877</v>
+        <v>-0.0183309308818308</v>
       </c>
       <c r="S17">
-        <v>-0.01491487717714877</v>
+        <v>-0.0183309308818308</v>
       </c>
       <c r="T17">
-        <v>-0.01491487717714877</v>
+        <v>-0.0183309308818308</v>
       </c>
       <c r="U17">
-        <v>0.02142454301824543</v>
+        <v>0.02805938938339362</v>
       </c>
       <c r="V17">
-        <v>-0.004480545128805451</v>
+        <v>0.0139104122633886</v>
       </c>
       <c r="W17">
-        <v>0.007391829049918291</v>
+        <v>0.006284032959314999</v>
       </c>
       <c r="X17">
-        <v>0.02546958266823302</v>
-      </c>
-      <c r="Y17">
-        <v>0.006636099332913839</v>
+        <v>0.003881798356676365</v>
       </c>
       <c r="Z17">
-        <v>0.01683646419636464</v>
+        <v>0.001485387407295999</v>
       </c>
       <c r="AA17">
-        <v>0.006125021077250211</v>
+        <v>-0.001612182086449639</v>
       </c>
       <c r="AB17">
-        <v>0.00601875696018757</v>
+        <v>-0.002803313962022943</v>
       </c>
       <c r="AC17">
-        <v>0.006125021077250211</v>
+        <v>-0.001612182086449639</v>
       </c>
       <c r="AD17">
-        <v>0.006125021077250211</v>
+        <v>-0.001612182086449639</v>
       </c>
       <c r="AE17">
-        <v>0.01490277384344896</v>
+        <v>-0.001612182086449639</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2072,88 +2030,85 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>-0.07097814152578141</v>
+        <v>-0.06687876331182521</v>
       </c>
       <c r="D18">
-        <v>-0.001414514918145149</v>
+        <v>0.01586351008582092</v>
       </c>
       <c r="E18">
-        <v>0.0002986709669867097</v>
+        <v>-0.002927626621001036</v>
       </c>
       <c r="F18">
-        <v>-0.0002579571145795712</v>
+        <v>0.01214628822149763</v>
       </c>
       <c r="G18">
-        <v>0.005794516322772465</v>
-      </c>
-      <c r="H18">
-        <v>0.0006941525608969651</v>
+        <v>-0.01533571081939222</v>
       </c>
       <c r="I18">
-        <v>-0.006530549285305493</v>
+        <v>0.01886919816819588</v>
       </c>
       <c r="J18">
-        <v>0.0008472007799870439</v>
+        <v>-0.01561694552395293</v>
       </c>
       <c r="K18">
-        <v>0.0003964758879647589</v>
+        <v>-0.00912009926439444</v>
       </c>
       <c r="L18">
-        <v>0.003493356658933566</v>
+        <v>-0.02413120453921559</v>
       </c>
       <c r="M18">
-        <v>0.0003964758879647589</v>
+        <v>-0.00912009926439444</v>
       </c>
       <c r="N18">
-        <v>0.0003964758879647589</v>
+        <v>-0.00912009926439444</v>
+      </c>
+      <c r="O18">
+        <v>-0.00912009926439444</v>
       </c>
       <c r="P18">
-        <v>-0.001148391419483914</v>
+        <v>0.003019545168083377</v>
       </c>
       <c r="Q18">
-        <v>-0.0006354265623542656</v>
+        <v>-0.01420547838128061</v>
       </c>
       <c r="R18">
-        <v>-0.0006354265623542656</v>
+        <v>-0.01420547838128061</v>
       </c>
       <c r="S18">
-        <v>-0.0006354265623542656</v>
+        <v>-0.01420547838128061</v>
       </c>
       <c r="T18">
-        <v>-0.0006354265623542656</v>
+        <v>-0.01420547838128061</v>
       </c>
       <c r="U18">
-        <v>-0.02820481389004814</v>
+        <v>-0.07100140078529608</v>
       </c>
       <c r="V18">
-        <v>0.0005785976577859765</v>
+        <v>-0.01244960818339037</v>
       </c>
       <c r="W18">
-        <v>0.01242214943222149</v>
+        <v>-0.0116444393903836</v>
       </c>
       <c r="X18">
-        <v>-0.002670206807417086</v>
-      </c>
-      <c r="Y18">
-        <v>0.007817175244501064</v>
+        <v>0.01954046231846955</v>
       </c>
       <c r="Z18">
-        <v>0.001376639545766396</v>
+        <v>0.008733312422991062</v>
       </c>
       <c r="AA18">
-        <v>0.002846643616466436</v>
+        <v>0.003272555909962418</v>
       </c>
       <c r="AB18">
-        <v>0.003102686839026868</v>
+        <v>0.004696169859292263</v>
       </c>
       <c r="AC18">
-        <v>0.002846643616466436</v>
+        <v>0.003272555909962418</v>
       </c>
       <c r="AD18">
-        <v>0.002846643616466436</v>
+        <v>0.003272555909962418</v>
       </c>
       <c r="AE18">
-        <v>0.000981503656932618</v>
+        <v>0.003272555909962418</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2162,88 +2117,85 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>-0.05273102726331028</v>
+        <v>-0.06808663386419772</v>
       </c>
       <c r="D19">
-        <v>0.01707790277077903</v>
+        <v>-0.02754282313256171</v>
       </c>
       <c r="E19">
-        <v>0.001708179677081797</v>
+        <v>-0.007479877940594003</v>
       </c>
       <c r="F19">
-        <v>-0.00205195296851953</v>
+        <v>0.01231918065069213</v>
       </c>
       <c r="G19">
-        <v>0.005529313136299788</v>
-      </c>
-      <c r="H19">
-        <v>-0.01073794672158363</v>
+        <v>0.005594681015264898</v>
       </c>
       <c r="I19">
-        <v>-0.00122940900029409</v>
+        <v>-0.02592917117260376</v>
       </c>
       <c r="J19">
-        <v>-0.002687845994030333</v>
+        <v>0.02631053962799989</v>
       </c>
       <c r="K19">
-        <v>-0.008621083142210832</v>
+        <v>0.004917969506928058</v>
       </c>
       <c r="L19">
-        <v>-0.01076028521960285</v>
+        <v>0.0006835883414642298</v>
       </c>
       <c r="M19">
-        <v>-0.008621083142210832</v>
+        <v>0.004917969506928058</v>
       </c>
       <c r="N19">
-        <v>-0.008621083142210832</v>
+        <v>0.004917969506928058</v>
+      </c>
+      <c r="O19">
+        <v>0.004917969506928058</v>
       </c>
       <c r="P19">
-        <v>-0.004495435160954351</v>
+        <v>0.007040353016787395</v>
       </c>
       <c r="Q19">
-        <v>-0.009577560839775609</v>
+        <v>0.003467404186397192</v>
       </c>
       <c r="R19">
-        <v>-0.009577560839775609</v>
+        <v>0.003467404186397192</v>
       </c>
       <c r="S19">
-        <v>-0.009577560839775609</v>
+        <v>0.003467404186397192</v>
       </c>
       <c r="T19">
-        <v>-0.009577560839775609</v>
+        <v>0.003467404186397192</v>
       </c>
       <c r="U19">
-        <v>-0.01601515757215158</v>
+        <v>-0.04892471940449415</v>
       </c>
       <c r="V19">
-        <v>0.01639205259192053</v>
+        <v>-0.006628945852509342</v>
       </c>
       <c r="W19">
-        <v>0.006338998731389987</v>
+        <v>-0.01402623481115889</v>
       </c>
       <c r="X19">
-        <v>0.01280654806033388</v>
-      </c>
-      <c r="Y19">
-        <v>0.007242660041623737</v>
+        <v>0.0003050554905053674</v>
       </c>
       <c r="Z19">
-        <v>0.01071983523519835</v>
+        <v>-0.00184253098216239</v>
       </c>
       <c r="AA19">
-        <v>0.006481035568810355</v>
+        <v>0.01036457497823126</v>
       </c>
       <c r="AB19">
-        <v>0.006793373623933736</v>
+        <v>0.01180615116767034</v>
       </c>
       <c r="AC19">
-        <v>0.006481035568810355</v>
+        <v>0.01036457497823126</v>
       </c>
       <c r="AD19">
-        <v>0.006481035568810355</v>
+        <v>0.01036457497823126</v>
       </c>
       <c r="AE19">
-        <v>0.00592635417966444</v>
+        <v>0.01036457497823126</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2254,88 +2206,85 @@
         <v>67</v>
       </c>
       <c r="C20">
-        <v>-0.07356148321561483</v>
+        <v>-0.06358691570327579</v>
       </c>
       <c r="D20">
-        <v>-0.007641676312416763</v>
+        <v>0.003205968168993109</v>
       </c>
       <c r="E20">
-        <v>0.004754676827546769</v>
+        <v>0.01609474444637695</v>
       </c>
       <c r="F20">
-        <v>-0.007249168500491686</v>
+        <v>-0.01450886756974529</v>
       </c>
       <c r="G20">
-        <v>0.006724624010240226</v>
-      </c>
-      <c r="H20">
-        <v>-0.006659040950003354</v>
+        <v>-0.009798590530907782</v>
       </c>
       <c r="I20">
-        <v>0.1273916931979169</v>
+        <v>0.1496853365636207</v>
       </c>
       <c r="J20">
-        <v>-0.001980062398015903</v>
+        <v>0.003022698481325606</v>
       </c>
       <c r="K20">
-        <v>-0.007327928545279285</v>
+        <v>-0.03020221421070777</v>
       </c>
       <c r="L20">
-        <v>-0.007079279734792799</v>
+        <v>-0.03312663305360594</v>
       </c>
       <c r="M20">
-        <v>-0.007327928545279285</v>
+        <v>-0.03020221421070777</v>
       </c>
       <c r="N20">
-        <v>-0.007327928545279285</v>
+        <v>-0.03020221421070777</v>
+      </c>
+      <c r="O20">
+        <v>-0.03020221421070777</v>
       </c>
       <c r="P20">
-        <v>-0.00705543499055435</v>
+        <v>-0.01777119466980837</v>
       </c>
       <c r="Q20">
-        <v>-0.00654958096149581</v>
+        <v>-0.03349920088792479</v>
       </c>
       <c r="R20">
-        <v>-0.00654958096149581</v>
+        <v>-0.03349920088792479</v>
       </c>
       <c r="S20">
-        <v>-0.00654958096149581</v>
+        <v>-0.03349920088792479</v>
       </c>
       <c r="T20">
-        <v>-0.00654958096149581</v>
+        <v>-0.03349920088792479</v>
       </c>
       <c r="U20">
-        <v>-0.02358028614780286</v>
+        <v>-0.02557815456975856</v>
       </c>
       <c r="V20">
-        <v>-0.02631993919119939</v>
+        <v>0.02822030739068238</v>
       </c>
       <c r="W20">
-        <v>0.003419371486193715</v>
+        <v>-0.01088057793403548</v>
       </c>
       <c r="X20">
-        <v>0.0009523573644770332</v>
-      </c>
-      <c r="Y20">
-        <v>0.007416701654478078</v>
+        <v>0.004584293250865629</v>
       </c>
       <c r="Z20">
-        <v>0.03726339512463395</v>
+        <v>0.1624972211311924</v>
       </c>
       <c r="AA20">
-        <v>0.01193529825535298</v>
+        <v>0.007874160543652595</v>
       </c>
       <c r="AB20">
-        <v>0.01174740902147409</v>
+        <v>0.00618737019661001</v>
       </c>
       <c r="AC20">
-        <v>0.01193529825535298</v>
+        <v>0.007874160543652595</v>
       </c>
       <c r="AD20">
-        <v>0.01193529825535298</v>
+        <v>0.007874160543652595</v>
       </c>
       <c r="AE20">
-        <v>0.006151205138513641</v>
+        <v>0.007874160543652595</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2346,88 +2295,85 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>0.08897760321777604</v>
+        <v>0.033107772502967</v>
       </c>
       <c r="D21">
-        <v>0.004832216064322161</v>
+        <v>-0.00541800756337182</v>
       </c>
       <c r="E21">
-        <v>0.01702390147423901</v>
+        <v>-0.03880176935894405</v>
       </c>
       <c r="F21">
-        <v>0.1154656133906561</v>
+        <v>0.1365974153846061</v>
       </c>
       <c r="G21">
-        <v>-0.08754842397561632</v>
-      </c>
-      <c r="H21">
-        <v>0.08186814266389603</v>
+        <v>-0.110579792552196</v>
       </c>
       <c r="I21">
-        <v>0.009143389711433896</v>
+        <v>-0.04267196746666814</v>
       </c>
       <c r="J21">
-        <v>0.01515682246045388</v>
+        <v>-0.01538410047951012</v>
       </c>
       <c r="K21">
-        <v>0.00248433798084338</v>
+        <v>0.0002469609841111724</v>
       </c>
       <c r="L21">
-        <v>0.03355821262758213</v>
+        <v>-0.01245258997083529</v>
       </c>
       <c r="M21">
-        <v>0.00248433798084338</v>
+        <v>0.0002469609841111724</v>
       </c>
       <c r="N21">
-        <v>0.00248433798084338</v>
+        <v>0.0002469609841111724</v>
+      </c>
+      <c r="O21">
+        <v>0.0002469609841111724</v>
       </c>
       <c r="P21">
-        <v>0.0512825896888259</v>
+        <v>0.0604763095661359</v>
       </c>
       <c r="Q21">
-        <v>0.03903240481832405</v>
+        <v>0.01565549512093368</v>
       </c>
       <c r="R21">
-        <v>0.03903240481832405</v>
+        <v>0.01565549512093368</v>
       </c>
       <c r="S21">
-        <v>0.03903240481832405</v>
+        <v>0.01565549512093368</v>
       </c>
       <c r="T21">
-        <v>0.03903240481832405</v>
+        <v>0.01565549512093368</v>
       </c>
       <c r="U21">
-        <v>0.0202922401669224</v>
+        <v>0.07881153814752916</v>
       </c>
       <c r="V21">
-        <v>0.001721609873216099</v>
+        <v>-0.00596637964037274</v>
       </c>
       <c r="W21">
-        <v>0.2443586204235862</v>
+        <v>0.1346499358917241</v>
       </c>
       <c r="X21">
-        <v>-0.06483957969841887</v>
-      </c>
-      <c r="Y21">
-        <v>-0.0536178480953798</v>
+        <v>-0.09916440038800585</v>
       </c>
       <c r="Z21">
-        <v>-0.05124093656040937</v>
+        <v>0.01280021008076614</v>
       </c>
       <c r="AA21">
-        <v>-0.03489565281695653</v>
+        <v>-0.07202896596646266</v>
       </c>
       <c r="AB21">
-        <v>-0.03933632874936328</v>
+        <v>-0.07649913797423699</v>
       </c>
       <c r="AC21">
-        <v>-0.03489565281695653</v>
+        <v>-0.07202896596646266</v>
       </c>
       <c r="AD21">
-        <v>-0.03489565281695653</v>
+        <v>-0.07202896596646266</v>
       </c>
       <c r="AE21">
-        <v>0.01195846556804104</v>
+        <v>-0.07202896596646266</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2436,88 +2382,85 @@
         <v>69</v>
       </c>
       <c r="C22">
-        <v>-0.01180301061403011</v>
+        <v>-0.004363440936182962</v>
       </c>
       <c r="D22">
-        <v>-7.972794079727941E-05</v>
+        <v>0.009814116995312604</v>
       </c>
       <c r="E22">
-        <v>-0.009219624224196242</v>
+        <v>0.008974694175150275</v>
       </c>
       <c r="F22">
-        <v>0.005298501832985018</v>
+        <v>-0.02321175323275051</v>
       </c>
       <c r="G22">
-        <v>0.0004331084612325688</v>
-      </c>
-      <c r="H22">
-        <v>0.009014701202162955</v>
+        <v>0.01235894057260804</v>
       </c>
       <c r="I22">
-        <v>0.01170392127303921</v>
+        <v>0.01135593041151752</v>
       </c>
       <c r="J22">
-        <v>0.01099732273160112</v>
+        <v>0.01189936662420612</v>
       </c>
       <c r="K22">
-        <v>0.004155665693556657</v>
+        <v>-0.007852149389893297</v>
       </c>
       <c r="L22">
-        <v>0.003281084096810841</v>
+        <v>-0.006954304434574537</v>
       </c>
       <c r="M22">
-        <v>0.004155665693556657</v>
+        <v>-0.007852149389893297</v>
       </c>
       <c r="N22">
-        <v>0.004155665693556657</v>
+        <v>-0.007852149389893297</v>
+      </c>
+      <c r="O22">
+        <v>-0.007852149389893297</v>
       </c>
       <c r="P22">
-        <v>0.006133610113336101</v>
+        <v>-0.01122092547027382</v>
       </c>
       <c r="Q22">
-        <v>0.003148006411480064</v>
+        <v>-0.007853087171714021</v>
       </c>
       <c r="R22">
-        <v>0.003148006411480064</v>
+        <v>-0.007853087171714021</v>
       </c>
       <c r="S22">
-        <v>0.003148006411480064</v>
+        <v>-0.007853087171714021</v>
       </c>
       <c r="T22">
-        <v>0.003148006411480064</v>
+        <v>-0.007853087171714021</v>
       </c>
       <c r="U22">
-        <v>0.002125847601258476</v>
+        <v>-0.006308297293185106</v>
       </c>
       <c r="V22">
-        <v>-0.0161426101854261</v>
+        <v>-0.00860800368613166</v>
       </c>
       <c r="W22">
-        <v>-0.0001627791616277916</v>
+        <v>-0.009100595495202431</v>
       </c>
       <c r="X22">
-        <v>-0.004520968667396308</v>
-      </c>
-      <c r="Y22">
-        <v>-0.008475486603312552</v>
+        <v>-0.004340669757895914</v>
       </c>
       <c r="Z22">
-        <v>-0.002762876859628768</v>
+        <v>-0.0124756011729608</v>
       </c>
       <c r="AA22">
-        <v>-0.005529456691294567</v>
+        <v>0.01382393566290401</v>
       </c>
       <c r="AB22">
-        <v>-0.005452212330522123</v>
+        <v>0.01307711361255224</v>
       </c>
       <c r="AC22">
-        <v>-0.005529456691294567</v>
+        <v>0.01382393566290401</v>
       </c>
       <c r="AD22">
-        <v>-0.005529456691294567</v>
+        <v>0.01382393566290401</v>
       </c>
       <c r="AE22">
-        <v>-0.005428293082622613</v>
+        <v>0.01382393566290401</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2526,88 +2469,85 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>0.09336932864169328</v>
+        <v>0.01399290245032654</v>
       </c>
       <c r="D23">
-        <v>0.01001911825619118</v>
+        <v>-0.01950389923706646</v>
       </c>
       <c r="E23">
-        <v>0.007185705827857059</v>
+        <v>-0.03968509597932875</v>
       </c>
       <c r="F23">
-        <v>0.1409285501692855</v>
+        <v>0.1430413478984784</v>
       </c>
       <c r="G23">
-        <v>-0.1180177826389352</v>
-      </c>
-      <c r="H23">
-        <v>0.1126813984359949</v>
+        <v>-0.1035834038271361</v>
       </c>
       <c r="I23">
-        <v>-0.005570333203703332</v>
+        <v>-0.05107840528303774</v>
       </c>
       <c r="J23">
-        <v>0.001738977774604797</v>
+        <v>0.03243719717268595</v>
       </c>
       <c r="K23">
-        <v>0.02996434606764346</v>
+        <v>-0.01716534552647932</v>
       </c>
       <c r="L23">
-        <v>0.06436621555966215</v>
+        <v>-0.03802270258035178</v>
       </c>
       <c r="M23">
-        <v>0.02996434606764346</v>
+        <v>-0.01716534552647932</v>
       </c>
       <c r="N23">
-        <v>0.02996434606764346</v>
+        <v>-0.01716534552647932</v>
+      </c>
+      <c r="O23">
+        <v>-0.01716534552647932</v>
       </c>
       <c r="P23">
-        <v>0.07213282479732824</v>
+        <v>0.05852207964168091</v>
       </c>
       <c r="Q23">
-        <v>0.06935037534950374</v>
+        <v>-0.004876936180438779</v>
       </c>
       <c r="R23">
-        <v>0.06935037534950374</v>
+        <v>-0.004876936180438779</v>
       </c>
       <c r="S23">
-        <v>0.06935037534950374</v>
+        <v>-0.004876936180438779</v>
       </c>
       <c r="T23">
-        <v>0.06935037534950374</v>
+        <v>-0.004876936180438779</v>
       </c>
       <c r="U23">
-        <v>-0.009467559118675592</v>
+        <v>0.07418105496269287</v>
       </c>
       <c r="V23">
-        <v>-0.008467261440672615</v>
+        <v>0.0009781179300678868</v>
       </c>
       <c r="W23">
-        <v>0.2770643141386431</v>
+        <v>0.1436817786106111</v>
       </c>
       <c r="X23">
-        <v>-0.1006900656776326</v>
-      </c>
-      <c r="Y23">
-        <v>-0.07852734907883033</v>
+        <v>-0.1281225686698381</v>
       </c>
       <c r="Z23">
-        <v>-0.09144307359843074</v>
+        <v>-0.008765869558325461</v>
       </c>
       <c r="AA23">
-        <v>-0.04704556501445566</v>
+        <v>-0.06345614390618132</v>
       </c>
       <c r="AB23">
-        <v>-0.05226200566262006</v>
+        <v>-0.06765475665483886</v>
       </c>
       <c r="AC23">
-        <v>-0.04704556501445566</v>
+        <v>-0.06345614390618132</v>
       </c>
       <c r="AD23">
-        <v>-0.04704556501445566</v>
+        <v>-0.06345614390618132</v>
       </c>
       <c r="AE23">
-        <v>0.02299676605784958</v>
+        <v>-0.06345614390618132</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2616,88 +2556,85 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>0.001071819742718197</v>
+        <v>-0.006950060593471895</v>
       </c>
       <c r="D24">
-        <v>-0.01110188474701885</v>
+        <v>-0.001130439183595701</v>
       </c>
       <c r="E24">
-        <v>0.004118455745184557</v>
+        <v>0.006728178032769164</v>
       </c>
       <c r="F24">
-        <v>-0.0004181215481812155</v>
+        <v>-0.004143210938005318</v>
       </c>
       <c r="G24">
-        <v>-0.0003285866808010913</v>
-      </c>
-      <c r="H24">
-        <v>0.0007214104277239667</v>
+        <v>-0.005549804913359008</v>
       </c>
       <c r="I24">
-        <v>-0.01101975756219758</v>
+        <v>0.01050219380646062</v>
       </c>
       <c r="J24">
-        <v>0.004629444083502005</v>
+        <v>0.0007562911432698343</v>
       </c>
       <c r="K24">
-        <v>0.001286026824860268</v>
+        <v>-0.01657221258505765</v>
       </c>
       <c r="L24">
-        <v>0.003554739071547391</v>
+        <v>-0.02034088997173975</v>
       </c>
       <c r="M24">
-        <v>0.001286026824860268</v>
+        <v>-0.01657221258505765</v>
       </c>
       <c r="N24">
-        <v>0.001286026824860268</v>
+        <v>-0.01657221258505765</v>
+      </c>
+      <c r="O24">
+        <v>-0.01657221258505765</v>
       </c>
       <c r="P24">
-        <v>-0.0008969154209691541</v>
+        <v>-0.008396330082903785</v>
       </c>
       <c r="Q24">
-        <v>0.001618545892185459</v>
+        <v>-0.01939165993513538</v>
       </c>
       <c r="R24">
-        <v>0.001618545892185459</v>
+        <v>-0.01939165993513538</v>
       </c>
       <c r="S24">
-        <v>0.001618545892185459</v>
+        <v>-0.01939165993513538</v>
       </c>
       <c r="T24">
-        <v>0.001618545892185459</v>
+        <v>-0.01939165993513538</v>
       </c>
       <c r="U24">
-        <v>0.01885250632452506</v>
+        <v>-0.02747445339125971</v>
       </c>
       <c r="V24">
-        <v>0.005039171390391714</v>
+        <v>-0.01172732041317001</v>
       </c>
       <c r="W24">
-        <v>-0.006951016173510161</v>
+        <v>-0.02684769899099373</v>
       </c>
       <c r="X24">
-        <v>-0.001339359065025368</v>
-      </c>
-      <c r="Y24">
-        <v>0.006412873804020336</v>
+        <v>0.02176970220314495</v>
       </c>
       <c r="Z24">
-        <v>0.0005868749818687499</v>
+        <v>-0.02004462831748992</v>
       </c>
       <c r="AA24">
-        <v>0.005036188646361886</v>
+        <v>0.02732776392021924</v>
       </c>
       <c r="AB24">
-        <v>0.004962229873622299</v>
+        <v>0.0285730278453752</v>
       </c>
       <c r="AC24">
-        <v>0.005036188646361886</v>
+        <v>0.02732776392021924</v>
       </c>
       <c r="AD24">
-        <v>0.005036188646361886</v>
+        <v>0.02732776392021924</v>
       </c>
       <c r="AE24">
-        <v>0.004184986835994582</v>
+        <v>0.02732776392021924</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2708,88 +2645,85 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>0.04754564695945647</v>
+        <v>-0.01075878288946223</v>
       </c>
       <c r="D25">
-        <v>0.001704990857049909</v>
+        <v>-0.02223938068774957</v>
       </c>
       <c r="E25">
-        <v>-0.01280570811205708</v>
+        <v>-0.02649557854663599</v>
       </c>
       <c r="F25">
-        <v>0.1329240119492401</v>
+        <v>0.1162455902770599</v>
       </c>
       <c r="G25">
-        <v>-0.0988541049158345</v>
-      </c>
-      <c r="H25">
-        <v>0.1060017911606823</v>
+        <v>-0.06987278830502183</v>
       </c>
       <c r="I25">
-        <v>-0.00360842293208423</v>
+        <v>-0.02841298638101661</v>
       </c>
       <c r="J25">
-        <v>-0.01077414466444337</v>
+        <v>-0.01799038913370844</v>
       </c>
       <c r="K25">
-        <v>0.05285184892851849</v>
+        <v>0.01173359022922427</v>
       </c>
       <c r="L25">
-        <v>0.06069181222291813</v>
+        <v>-0.03786140088408736</v>
       </c>
       <c r="M25">
-        <v>0.05285184892851849</v>
+        <v>0.01173359022922427</v>
       </c>
       <c r="N25">
-        <v>0.05285184892851849</v>
+        <v>0.01173359022922427</v>
+      </c>
+      <c r="O25">
+        <v>0.01173359022922427</v>
       </c>
       <c r="P25">
-        <v>0.06996673457166734</v>
+        <v>0.04106247797622827</v>
       </c>
       <c r="Q25">
-        <v>0.06841393581613936</v>
+        <v>-0.001724617109930272</v>
       </c>
       <c r="R25">
-        <v>0.06841393581613936</v>
+        <v>-0.001724617109930272</v>
       </c>
       <c r="S25">
-        <v>0.06841393581613936</v>
+        <v>-0.001724617109930272</v>
       </c>
       <c r="T25">
-        <v>0.06841393581613936</v>
+        <v>-0.001724617109930272</v>
       </c>
       <c r="U25">
-        <v>-0.03602339847623399</v>
+        <v>0.02596007999616749</v>
       </c>
       <c r="V25">
-        <v>-0.002022009680220097</v>
+        <v>0.03971088740840124</v>
       </c>
       <c r="W25">
-        <v>-0.3599272749232728</v>
+        <v>0.04625633256221096</v>
       </c>
       <c r="X25">
-        <v>-0.06500466441868348</v>
-      </c>
-      <c r="Y25">
-        <v>-0.0981347964523884</v>
+        <v>-0.07666201438546248</v>
       </c>
       <c r="Z25">
-        <v>-0.07509403271494033</v>
+        <v>0.0317653844447612</v>
       </c>
       <c r="AA25">
-        <v>-0.07065305305053053</v>
+        <v>-0.04770080216077233</v>
       </c>
       <c r="AB25">
-        <v>-0.07197610202376102</v>
+        <v>-0.04572222994080852</v>
       </c>
       <c r="AC25">
-        <v>-0.07065305305053053</v>
+        <v>-0.04770080216077233</v>
       </c>
       <c r="AD25">
-        <v>-0.07065305305053053</v>
+        <v>-0.04770080216077233</v>
       </c>
       <c r="AE25">
-        <v>0.008097915116484491</v>
+        <v>-0.04770080216077233</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -2798,88 +2732,85 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>0.1480416563804166</v>
+        <v>0.04557023861121973</v>
       </c>
       <c r="D26">
-        <v>-0.01081725564017256</v>
+        <v>0.009351719789640245</v>
       </c>
       <c r="E26">
-        <v>0.0001262666412626664</v>
+        <v>-0.04657059181724137</v>
       </c>
       <c r="F26">
-        <v>0.2311711180397112</v>
+        <v>0.2334788376909281</v>
       </c>
       <c r="G26">
-        <v>-0.1760407038726296</v>
-      </c>
-      <c r="H26">
-        <v>0.1611527771599144</v>
+        <v>-0.1776435798529001</v>
       </c>
       <c r="I26">
-        <v>-0.01261767533417675</v>
+        <v>-0.02601995215240775</v>
       </c>
       <c r="J26">
-        <v>-0.0004419979322538288</v>
+        <v>-0.0219718147903358</v>
       </c>
       <c r="K26">
-        <v>0.02334311777343118</v>
+        <v>-0.0644826125795545</v>
       </c>
       <c r="L26">
-        <v>0.08016342239763422</v>
+        <v>-0.08779115460287173</v>
       </c>
       <c r="M26">
-        <v>0.02334311777343118</v>
+        <v>-0.0644826125795545</v>
       </c>
       <c r="N26">
-        <v>0.02334311777343118</v>
+        <v>-0.0644826125795545</v>
+      </c>
+      <c r="O26">
+        <v>-0.0644826125795545</v>
       </c>
       <c r="P26">
-        <v>0.1142120262021203</v>
+        <v>0.07637164556410825</v>
       </c>
       <c r="Q26">
-        <v>0.09105713408257135</v>
+        <v>-0.0393783933511514</v>
       </c>
       <c r="R26">
-        <v>0.09105713408257135</v>
+        <v>-0.0393783933511514</v>
       </c>
       <c r="S26">
-        <v>0.09105713408257135</v>
+        <v>-0.0393783933511514</v>
       </c>
       <c r="T26">
-        <v>0.09105713408257135</v>
+        <v>-0.0393783933511514</v>
       </c>
       <c r="U26">
-        <v>0.02483108435631085</v>
+        <v>0.1249674029145808</v>
       </c>
       <c r="V26">
-        <v>-0.0132826495688265</v>
+        <v>0.001005264415567831</v>
       </c>
       <c r="W26">
-        <v>0.4655460582834606</v>
+        <v>0.199443464578027</v>
       </c>
       <c r="X26">
-        <v>-0.1341322861764325</v>
-      </c>
-      <c r="Y26">
-        <v>-0.1231723007376073</v>
+        <v>-0.1632934549691209</v>
       </c>
       <c r="Z26">
-        <v>-0.1168244731962447</v>
+        <v>-0.004843814815844937</v>
       </c>
       <c r="AA26">
-        <v>-0.08143683897436839</v>
+        <v>-0.07019625488096695</v>
       </c>
       <c r="AB26">
-        <v>-0.09006891223268912</v>
+        <v>-0.07741779476331867</v>
       </c>
       <c r="AC26">
-        <v>-0.08143683897436839</v>
+        <v>-0.07019625488096695</v>
       </c>
       <c r="AD26">
-        <v>-0.08143683897436839</v>
+        <v>-0.07019625488096695</v>
       </c>
       <c r="AE26">
-        <v>0.02334022478413669</v>
+        <v>-0.07019625488096695</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -2890,88 +2821,85 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>0.1578652064706521</v>
+        <v>0.2224898387535066</v>
       </c>
       <c r="D27">
-        <v>-0.001261675212616752</v>
+        <v>0.03053462895168286</v>
       </c>
       <c r="E27">
-        <v>0.004913777125137771</v>
+        <v>0.02932959963158997</v>
       </c>
       <c r="F27">
-        <v>-0.0006183584701835847</v>
+        <v>0.4715765137417447</v>
       </c>
       <c r="G27">
-        <v>0.1525692704606005</v>
-      </c>
-      <c r="H27">
-        <v>-0.2024505164063815</v>
+        <v>0.03759822509362525</v>
       </c>
       <c r="I27">
-        <v>-0.228128901001289</v>
+        <v>-0.1629314782491976</v>
       </c>
       <c r="J27">
-        <v>0.04589023068130087</v>
+        <v>0.07706450673647224</v>
       </c>
       <c r="K27">
-        <v>-0.2282832611908326</v>
+        <v>-0.2391713101142632</v>
       </c>
       <c r="L27">
-        <v>-0.2718330584703306</v>
+        <v>-0.3143970624333308</v>
       </c>
       <c r="M27">
-        <v>-0.2282832611908326</v>
+        <v>-0.2391713101142632</v>
       </c>
       <c r="N27">
-        <v>-0.2282832611908326</v>
+        <v>-0.2391713101142632</v>
+      </c>
+      <c r="O27">
+        <v>-0.2391713101142632</v>
       </c>
       <c r="P27">
-        <v>-0.105452398750524</v>
+        <v>-0.01591037110319344</v>
       </c>
       <c r="Q27">
-        <v>-0.2428633303846333</v>
+        <v>-0.2607299052959037</v>
       </c>
       <c r="R27">
-        <v>-0.2428633303846333</v>
+        <v>-0.2607299052959037</v>
       </c>
       <c r="S27">
-        <v>-0.2428633303846333</v>
+        <v>-0.2607299052959037</v>
       </c>
       <c r="T27">
-        <v>-0.2428633303846333</v>
+        <v>-0.2607299052959037</v>
       </c>
       <c r="U27">
-        <v>-0.1198147413221474</v>
+        <v>-0.1486550592142894</v>
       </c>
       <c r="V27">
-        <v>0.005221755472217555</v>
+        <v>-0.1419181318210046</v>
       </c>
       <c r="W27">
-        <v>-0.001792911497929115</v>
+        <v>-0.1711511538918242</v>
       </c>
       <c r="X27">
-        <v>0.01281040424105182</v>
-      </c>
-      <c r="Y27">
-        <v>0.1417096183956818</v>
+        <v>0.08870126005458318</v>
       </c>
       <c r="Z27">
-        <v>0.1807160248511603</v>
+        <v>-0.07979258227825343</v>
       </c>
       <c r="AA27">
-        <v>0.1684764208247642</v>
+        <v>0.1714384286104269</v>
       </c>
       <c r="AB27">
-        <v>0.1747986651199867</v>
+        <v>0.1874406598245073</v>
       </c>
       <c r="AC27">
-        <v>0.1684764208247642</v>
+        <v>0.1714384286104269</v>
       </c>
       <c r="AD27">
-        <v>0.1684764208247642</v>
+        <v>0.1714384286104269</v>
       </c>
       <c r="AE27">
-        <v>0.04229689464527717</v>
+        <v>0.1714384286104269</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -2980,88 +2908,85 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>0.04215721176157212</v>
+        <v>0.03784437698633789</v>
       </c>
       <c r="D28">
-        <v>0.01474209685542097</v>
+        <v>0.01266482205779741</v>
       </c>
       <c r="E28">
-        <v>-0.002182443573824436</v>
+        <v>-0.002573827175359969</v>
       </c>
       <c r="F28">
-        <v>-6.106518061065181E-05</v>
+        <v>-0.0110595446912926</v>
       </c>
       <c r="G28">
-        <v>-0.005599097295769899</v>
-      </c>
-      <c r="H28">
-        <v>0.001983353910726656</v>
+        <v>-0.00059533188937996</v>
       </c>
       <c r="I28">
-        <v>-0.06871218609912186</v>
+        <v>-0.05821544553940171</v>
       </c>
       <c r="J28">
-        <v>-0.01131237359205877</v>
+        <v>-0.02619422989091579</v>
       </c>
       <c r="K28">
-        <v>0.004023764968237649</v>
+        <v>0.005035261881495066</v>
       </c>
       <c r="L28">
-        <v>0.004089721276897212</v>
+        <v>0.007605326999060771</v>
       </c>
       <c r="M28">
-        <v>0.004023764968237649</v>
+        <v>0.005035261881495066</v>
       </c>
       <c r="N28">
-        <v>0.004023764968237649</v>
+        <v>0.005035261881495066</v>
+      </c>
+      <c r="O28">
+        <v>0.005035261881495066</v>
       </c>
       <c r="P28">
-        <v>0.0004062038320620383</v>
+        <v>0.001438201604259026</v>
       </c>
       <c r="Q28">
-        <v>0.003098642262986423</v>
+        <v>0.00730422761259111</v>
       </c>
       <c r="R28">
-        <v>0.003098642262986423</v>
+        <v>0.00730422761259111</v>
       </c>
       <c r="S28">
-        <v>0.003098642262986423</v>
+        <v>0.00730422761259111</v>
       </c>
       <c r="T28">
-        <v>0.003098642262986423</v>
+        <v>0.00730422761259111</v>
       </c>
       <c r="U28">
-        <v>-0.02306122815861228</v>
+        <v>0.01547804256648093</v>
       </c>
       <c r="V28">
-        <v>0.0004754368367543683</v>
+        <v>0.02046987126699271</v>
       </c>
       <c r="W28">
-        <v>-0.01023100180231002</v>
+        <v>0.001502856326334865</v>
       </c>
       <c r="X28">
-        <v>0.0001799966971587965</v>
-      </c>
-      <c r="Y28">
-        <v>-0.002942545821615553</v>
+        <v>-0.01288457836333062</v>
       </c>
       <c r="Z28">
-        <v>0.03354532235945322</v>
+        <v>0.005276633684086246</v>
       </c>
       <c r="AA28">
-        <v>-0.001016177734161777</v>
+        <v>-0.005089415651965678</v>
       </c>
       <c r="AB28">
-        <v>-0.0009429861454298614</v>
+        <v>-0.0061347909336026</v>
       </c>
       <c r="AC28">
-        <v>-0.001016177734161777</v>
+        <v>-0.005089415651965678</v>
       </c>
       <c r="AD28">
-        <v>-0.001016177734161777</v>
+        <v>-0.005089415651965678</v>
       </c>
       <c r="AE28">
-        <v>0.007966559541086892</v>
+        <v>-0.005089415651965678</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3072,88 +2997,85 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>-0.02689951396099514</v>
+        <v>-0.03215658109353585</v>
       </c>
       <c r="D29">
-        <v>-0.005577593131775931</v>
+        <v>0.01124600146467974</v>
       </c>
       <c r="E29">
-        <v>-0.04944705756247058</v>
+        <v>-0.04279341483689931</v>
       </c>
       <c r="F29">
-        <v>0.007162233779622339</v>
+        <v>0.0647402266081982</v>
       </c>
       <c r="G29">
-        <v>0.02292175169690817</v>
-      </c>
-      <c r="H29">
-        <v>-0.02016534813100172</v>
+        <v>0.01783411816704661</v>
       </c>
       <c r="I29">
-        <v>0.01070461324704613</v>
+        <v>0.02639745202964059</v>
       </c>
       <c r="J29">
-        <v>0.005267285036526816</v>
+        <v>0.001817975547268279</v>
       </c>
       <c r="K29">
-        <v>-0.004171660445716605</v>
+        <v>0.004978117074685305</v>
       </c>
       <c r="L29">
-        <v>-0.006240673682406736</v>
+        <v>0.01224166482736601</v>
       </c>
       <c r="M29">
-        <v>-0.004171660445716605</v>
+        <v>0.004978117074685305</v>
       </c>
       <c r="N29">
-        <v>-0.004171660445716605</v>
+        <v>0.004978117074685305</v>
+      </c>
+      <c r="O29">
+        <v>0.004978117074685305</v>
       </c>
       <c r="P29">
-        <v>0.01161908720019087</v>
+        <v>0.03879735151717981</v>
       </c>
       <c r="Q29">
-        <v>-0.00589939801099398</v>
+        <v>0.01741420342142721</v>
       </c>
       <c r="R29">
-        <v>-0.00589939801099398</v>
+        <v>0.01741420342142721</v>
       </c>
       <c r="S29">
-        <v>-0.00589939801099398</v>
+        <v>0.01741420342142721</v>
       </c>
       <c r="T29">
-        <v>-0.00589939801099398</v>
+        <v>0.01741420342142721</v>
       </c>
       <c r="U29">
-        <v>-0.03561584534015845</v>
+        <v>-0.04159721722984999</v>
       </c>
       <c r="V29">
-        <v>-0.4162177503581775</v>
+        <v>-0.3324156641361946</v>
       </c>
       <c r="W29">
-        <v>0.05098911620989115</v>
+        <v>0.01825322601671207</v>
       </c>
       <c r="X29">
-        <v>0.0392656487263985</v>
-      </c>
-      <c r="Y29">
-        <v>0.004869858775220655</v>
+        <v>0.03653809556846334</v>
       </c>
       <c r="Z29">
-        <v>0.02975790836157908</v>
+        <v>0.04732594158162849</v>
       </c>
       <c r="AA29">
-        <v>-0.0005778248337782483</v>
+        <v>-0.0007104774461197729</v>
       </c>
       <c r="AB29">
-        <v>-0.0002060171900601719</v>
+        <v>-0.001292445570861688</v>
       </c>
       <c r="AC29">
-        <v>-0.0005778248337782483</v>
+        <v>-0.0007104774461197729</v>
       </c>
       <c r="AD29">
-        <v>-0.0005778248337782483</v>
+        <v>-0.0007104774461197729</v>
       </c>
       <c r="AE29">
-        <v>-0.004103202995743327</v>
+        <v>-0.0007104774461197729</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3164,88 +3086,85 @@
         <v>77</v>
       </c>
       <c r="C30">
-        <v>0.004712475803124757</v>
+        <v>0.02840079194753608</v>
       </c>
       <c r="D30">
-        <v>0.004842115728421158</v>
+        <v>0.01249521396699687</v>
       </c>
       <c r="E30">
-        <v>0.01842983266029833</v>
+        <v>0.01870319055981016</v>
       </c>
       <c r="F30">
-        <v>-0.01478164718781647</v>
+        <v>-0.02127520336370766</v>
       </c>
       <c r="G30">
-        <v>0.01329582819674106</v>
-      </c>
-      <c r="H30">
-        <v>-0.01068241663092942</v>
+        <v>0.00814960092839892</v>
       </c>
       <c r="I30">
-        <v>0.005304398297043982</v>
+        <v>0.01182898902309647</v>
       </c>
       <c r="J30">
-        <v>-0.009515952512641214</v>
+        <v>0.01796407499953007</v>
       </c>
       <c r="K30">
-        <v>-0.008358897695588978</v>
+        <v>-0.008762148886997284</v>
       </c>
       <c r="L30">
-        <v>-0.005525810755258107</v>
+        <v>0.003905120764536048</v>
       </c>
       <c r="M30">
-        <v>-0.008358897695588978</v>
+        <v>-0.008762148886997284</v>
       </c>
       <c r="N30">
-        <v>-0.008358897695588978</v>
+        <v>-0.008762148886997284</v>
+      </c>
+      <c r="O30">
+        <v>-0.008762148886997284</v>
       </c>
       <c r="P30">
-        <v>-0.01539850517798505</v>
+        <v>-0.01790505139353188</v>
       </c>
       <c r="Q30">
-        <v>-0.008277415630774157</v>
+        <v>-0.004499159770610865</v>
       </c>
       <c r="R30">
-        <v>-0.008277415630774157</v>
+        <v>-0.004499159770610865</v>
       </c>
       <c r="S30">
-        <v>-0.008277415630774157</v>
+        <v>-0.004499159770610865</v>
       </c>
       <c r="T30">
-        <v>-0.008277415630774157</v>
+        <v>-0.004499159770610865</v>
       </c>
       <c r="U30">
-        <v>0.01008343709283437</v>
+        <v>-0.006787925655918468</v>
       </c>
       <c r="V30">
-        <v>0.01294240224942402</v>
+        <v>0.005424920551267553</v>
       </c>
       <c r="W30">
-        <v>0.004739913179399131</v>
+        <v>-0.006980673452420358</v>
       </c>
       <c r="X30">
-        <v>0.01770380253932111</v>
-      </c>
-      <c r="Y30">
-        <v>0.01532857859866006</v>
+        <v>-0.005133411440046617</v>
       </c>
       <c r="Z30">
-        <v>0.01130986631309866</v>
+        <v>-0.02219442335439388</v>
       </c>
       <c r="AA30">
-        <v>0.008097345560973454</v>
+        <v>0.01975757781450492</v>
       </c>
       <c r="AB30">
-        <v>0.00752240198722402</v>
+        <v>0.01803109481023171</v>
       </c>
       <c r="AC30">
-        <v>0.008097345560973454</v>
+        <v>0.01975757781450492</v>
       </c>
       <c r="AD30">
-        <v>0.008097345560973454</v>
+        <v>0.01975757781450492</v>
       </c>
       <c r="AE30">
-        <v>-0.009152639090259203</v>
+        <v>0.01975757781450492</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3256,88 +3175,85 @@
         <v>78</v>
       </c>
       <c r="C31">
-        <v>0.001729154645291546</v>
+        <v>-0.01228370983340666</v>
       </c>
       <c r="D31">
-        <v>-0.01621171205411712</v>
+        <v>-0.0008613098145233675</v>
       </c>
       <c r="E31">
-        <v>-0.003136111171361112</v>
+        <v>-0.0003458765065226838</v>
       </c>
       <c r="F31">
-        <v>0.01087755920477559</v>
+        <v>0.01201556416364508</v>
       </c>
       <c r="G31">
-        <v>-0.01659007081902183</v>
-      </c>
-      <c r="H31">
-        <v>0.005803738855111669</v>
+        <v>0.00159149520618195</v>
       </c>
       <c r="I31">
-        <v>-0.008841153400411535</v>
+        <v>0.0003962448634055284</v>
       </c>
       <c r="J31">
-        <v>-0.001805926345552052</v>
+        <v>0.01139439869668533</v>
       </c>
       <c r="K31">
-        <v>0.009429374098293742</v>
+        <v>0.0114357703698551</v>
       </c>
       <c r="L31">
-        <v>0.005428964730289647</v>
+        <v>0.008916398161278758</v>
       </c>
       <c r="M31">
-        <v>0.009429374098293742</v>
+        <v>0.0114357703698551</v>
       </c>
       <c r="N31">
-        <v>0.009429374098293742</v>
+        <v>0.0114357703698551</v>
+      </c>
+      <c r="O31">
+        <v>0.0114357703698551</v>
       </c>
       <c r="P31">
-        <v>0.008138610813386108</v>
+        <v>0.002514287325349666</v>
       </c>
       <c r="Q31">
-        <v>0.009489786490897864</v>
+        <v>0.007976743205913576</v>
       </c>
       <c r="R31">
-        <v>0.009489786490897864</v>
+        <v>0.007976743205913576</v>
       </c>
       <c r="S31">
-        <v>0.009489786490897864</v>
+        <v>0.007976743205913576</v>
       </c>
       <c r="T31">
-        <v>0.009489786490897864</v>
+        <v>0.007976743205913576</v>
       </c>
       <c r="U31">
-        <v>0.001967577283675773</v>
+        <v>-0.003395729833872486</v>
       </c>
       <c r="V31">
-        <v>0.07366827548868275</v>
+        <v>0.04092822046708826</v>
       </c>
       <c r="W31">
-        <v>0.007003886170038862</v>
+        <v>0.00453266314256324</v>
       </c>
       <c r="X31">
-        <v>-0.008796141351498123</v>
-      </c>
-      <c r="Y31">
-        <v>-0.004306024667640369</v>
+        <v>0.008173827478152049</v>
       </c>
       <c r="Z31">
-        <v>-0.009017145150171452</v>
+        <v>0.01491413566370112</v>
       </c>
       <c r="AA31">
-        <v>0.0009028905930289061</v>
+        <v>-0.001772700242553624</v>
       </c>
       <c r="AB31">
-        <v>0.001355556577555566</v>
+        <v>-0.0001009167402220092</v>
       </c>
       <c r="AC31">
-        <v>0.0009028905930289061</v>
+        <v>-0.001772700242553624</v>
       </c>
       <c r="AD31">
-        <v>0.0009028905930289061</v>
+        <v>-0.001772700242553624</v>
       </c>
       <c r="AE31">
-        <v>0.02895977130876217</v>
+        <v>-0.001772700242553624</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3348,88 +3264,85 @@
         <v>79</v>
       </c>
       <c r="C32">
-        <v>-0.01230232838702328</v>
+        <v>-0.0191720641868861</v>
       </c>
       <c r="D32">
-        <v>-0.002000245952002459</v>
+        <v>0.0002217210787464523</v>
       </c>
       <c r="E32">
-        <v>-0.00143855496238555</v>
+        <v>-0.01311557621356225</v>
       </c>
       <c r="F32">
-        <v>0.00234966200349662</v>
+        <v>0.008003569810465705</v>
       </c>
       <c r="G32">
-        <v>-0.005051847719705692</v>
-      </c>
-      <c r="H32">
-        <v>0.003544382918076936</v>
+        <v>-0.0144132983252921</v>
       </c>
       <c r="I32">
-        <v>-0.0007477978274779783</v>
+        <v>0.004629082911592624</v>
       </c>
       <c r="J32">
-        <v>0.004079850747725809</v>
+        <v>0.0006926011730328732</v>
       </c>
       <c r="K32">
-        <v>0.001050906562509066</v>
+        <v>0.009485831979033089</v>
       </c>
       <c r="L32">
-        <v>0.002617315658173157</v>
+        <v>0.002490046720965758</v>
       </c>
       <c r="M32">
-        <v>0.001050906562509066</v>
+        <v>0.009485831979033089</v>
       </c>
       <c r="N32">
-        <v>0.001050906562509066</v>
+        <v>0.009485831979033089</v>
+      </c>
+      <c r="O32">
+        <v>0.009485831979033089</v>
       </c>
       <c r="P32">
-        <v>0.001174481243744813</v>
+        <v>0.01429406587838198</v>
       </c>
       <c r="Q32">
-        <v>0.000692143698921437</v>
+        <v>0.008908231761368901</v>
       </c>
       <c r="R32">
-        <v>0.000692143698921437</v>
+        <v>0.008908231761368901</v>
       </c>
       <c r="S32">
-        <v>0.000692143698921437</v>
+        <v>0.008908231761368901</v>
       </c>
       <c r="T32">
-        <v>0.000692143698921437</v>
+        <v>0.008908231761368901</v>
       </c>
       <c r="U32">
-        <v>-0.008237621254376213</v>
+        <v>-0.004739697958220341</v>
       </c>
       <c r="V32">
-        <v>-0.02897056388570564</v>
+        <v>-0.006454590416409834</v>
       </c>
       <c r="W32">
-        <v>-0.005076968006769681</v>
+        <v>0.0004490020975594311</v>
       </c>
       <c r="X32">
-        <v>-0.002527110407671809</v>
-      </c>
-      <c r="Y32">
-        <v>-0.004468439926316368</v>
+        <v>-0.004608342968846623</v>
       </c>
       <c r="Z32">
-        <v>-0.001398701749987018</v>
+        <v>0.006693058766887502</v>
       </c>
       <c r="AA32">
-        <v>-0.006373400811734009</v>
+        <v>-0.005290349000128096</v>
       </c>
       <c r="AB32">
-        <v>-0.006625420446254205</v>
+        <v>-0.004632607487678552</v>
       </c>
       <c r="AC32">
-        <v>-0.006373400811734009</v>
+        <v>-0.005290349000128096</v>
       </c>
       <c r="AD32">
-        <v>-0.006373400811734009</v>
+        <v>-0.005290349000128096</v>
       </c>
       <c r="AE32">
-        <v>0.000828454243959508</v>
+        <v>-0.005290349000128096</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3440,88 +3353,85 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>0.4336383480523835</v>
+        <v>0.5921584202837987</v>
       </c>
       <c r="D33">
-        <v>0.003653658888536589</v>
+        <v>-0.014406557749864</v>
       </c>
       <c r="E33">
-        <v>0.9919006331710064</v>
+        <v>0.993141318388069</v>
       </c>
       <c r="F33">
-        <v>-0.939890904014909</v>
+        <v>-0.7047458313484135</v>
       </c>
       <c r="G33">
-        <v>0.8356252994617988</v>
-      </c>
-      <c r="H33">
-        <v>-0.845842023515367</v>
+        <v>0.2647009304108911</v>
       </c>
       <c r="I33">
-        <v>0.06334883355348835</v>
+        <v>0.2101829466134312</v>
       </c>
       <c r="J33">
-        <v>-0.02697070721760854</v>
+        <v>-0.01509698221802117</v>
       </c>
       <c r="K33">
-        <v>-0.8430934445949345</v>
+        <v>-0.7813528880363415</v>
       </c>
       <c r="L33">
-        <v>-0.7271474485194745</v>
+        <v>-0.2599269814150568</v>
       </c>
       <c r="M33">
-        <v>-0.8430934445949345</v>
+        <v>-0.7813528880363415</v>
       </c>
       <c r="N33">
-        <v>-0.8430934445949345</v>
+        <v>-0.7813528880363415</v>
+      </c>
+      <c r="O33">
+        <v>-0.7813528880363415</v>
       </c>
       <c r="P33">
-        <v>-0.975643097556431</v>
+        <v>-0.9873769230131431</v>
       </c>
       <c r="Q33">
-        <v>-0.8608248458922485</v>
+        <v>-0.6662299915545011</v>
       </c>
       <c r="R33">
-        <v>-0.8608248458922485</v>
+        <v>-0.6662299915545011</v>
       </c>
       <c r="S33">
-        <v>-0.8608248458922485</v>
+        <v>-0.6662299915545011</v>
       </c>
       <c r="T33">
-        <v>-0.8608248458922485</v>
+        <v>-0.6662299915545011</v>
       </c>
       <c r="U33">
-        <v>0.07899645815796458</v>
+        <v>-0.2339183486946818</v>
       </c>
       <c r="V33">
-        <v>0.01059539351795393</v>
+        <v>0.1194243415661915</v>
       </c>
       <c r="W33">
-        <v>-0.2433271883852719</v>
+        <v>-0.5329375423072508</v>
       </c>
       <c r="X33">
-        <v>0.5668720536733047</v>
-      </c>
-      <c r="Y33">
-        <v>0.7653926041904039</v>
+        <v>0.3931879141015622</v>
       </c>
       <c r="Z33">
-        <v>0.5790042808620428</v>
+        <v>-0.5078890949386922</v>
       </c>
       <c r="AA33">
-        <v>0.7540006408120064</v>
+        <v>0.7037308764739867</v>
       </c>
       <c r="AB33">
-        <v>0.7416504692045046</v>
+        <v>0.6503071172075254</v>
       </c>
       <c r="AC33">
-        <v>0.7540006408120064</v>
+        <v>0.7037308764739867</v>
       </c>
       <c r="AD33">
-        <v>0.7540006408120064</v>
+        <v>0.7037308764739867</v>
       </c>
       <c r="AE33">
-        <v>0.08780717890138939</v>
+        <v>0.7037308764739867</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3532,88 +3442,85 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>-0.008423603772236039</v>
+        <v>0.002187582935751249</v>
       </c>
       <c r="D34">
-        <v>-0.00284086194440862</v>
+        <v>0.004650521147737298</v>
       </c>
       <c r="E34">
-        <v>0.00783606291036063</v>
+        <v>-0.004340436974353443</v>
       </c>
       <c r="F34">
-        <v>-0.01277958059579581</v>
+        <v>-0.009343390226156979</v>
       </c>
       <c r="G34">
-        <v>0.01098623802529228</v>
-      </c>
-      <c r="H34">
-        <v>-0.01089333141266892</v>
+        <v>0.001386601509538428</v>
       </c>
       <c r="I34">
-        <v>0.001915347679153477</v>
+        <v>0.009543427926350151</v>
       </c>
       <c r="J34">
-        <v>0.0007291881763172834</v>
+        <v>-0.01104375477298199</v>
       </c>
       <c r="K34">
-        <v>-0.004389981751899818</v>
+        <v>0.01384693733586576</v>
       </c>
       <c r="L34">
-        <v>-0.003491985466919855</v>
+        <v>0.01475306051863367</v>
       </c>
       <c r="M34">
-        <v>-0.004389981751899818</v>
+        <v>0.01384693733586576</v>
       </c>
       <c r="N34">
-        <v>-0.004389981751899818</v>
+        <v>0.01384693733586576</v>
+      </c>
+      <c r="O34">
+        <v>0.01384693733586576</v>
       </c>
       <c r="P34">
-        <v>-0.01003719552437195</v>
+        <v>0.004324802933163747</v>
       </c>
       <c r="Q34">
-        <v>-0.005943706823437068</v>
+        <v>0.0137162754978471</v>
       </c>
       <c r="R34">
-        <v>-0.005943706823437068</v>
+        <v>0.0137162754978471</v>
       </c>
       <c r="S34">
-        <v>-0.005943706823437068</v>
+        <v>0.0137162754978471</v>
       </c>
       <c r="T34">
-        <v>-0.005943706823437068</v>
+        <v>0.0137162754978471</v>
       </c>
       <c r="U34">
-        <v>0.0154348496743485</v>
+        <v>0.007282572307701621</v>
       </c>
       <c r="V34">
-        <v>-0.01029129339091293</v>
+        <v>0.01505299001340678</v>
       </c>
       <c r="W34">
-        <v>-0.01047892600478926</v>
+        <v>0.006472928264390181</v>
       </c>
       <c r="X34">
-        <v>0.00895904636395769</v>
-      </c>
-      <c r="Y34">
-        <v>0.001624500824613413</v>
+        <v>-0.01449319466063169</v>
       </c>
       <c r="Z34">
-        <v>0.00413582087335821</v>
+        <v>0.003495374757715091</v>
       </c>
       <c r="AA34">
-        <v>-0.005208546472085465</v>
+        <v>-0.004611734461736645</v>
       </c>
       <c r="AB34">
-        <v>-0.005295895600958955</v>
+        <v>-0.005083928208282185</v>
       </c>
       <c r="AC34">
-        <v>-0.005208546472085465</v>
+        <v>-0.004611734461736645</v>
       </c>
       <c r="AD34">
-        <v>-0.005208546472085465</v>
+        <v>-0.004611734461736645</v>
       </c>
       <c r="AE34">
-        <v>-0.01331213545089656</v>
+        <v>-0.004611734461736645</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -3624,88 +3531,85 @@
         <v>82</v>
       </c>
       <c r="C35">
-        <v>-0.002141007477410075</v>
+        <v>3.969714154298149E-05</v>
       </c>
       <c r="D35">
-        <v>0.006341509179415093</v>
+        <v>-0.02098005377220967</v>
       </c>
       <c r="E35">
-        <v>0.005562970759629709</v>
+        <v>0.01230222966972998</v>
       </c>
       <c r="F35">
-        <v>-0.003939424791394247</v>
+        <v>-0.004376938949922062</v>
       </c>
       <c r="G35">
-        <v>-0.001654783669811554</v>
-      </c>
-      <c r="H35">
-        <v>-0.006550230604487937</v>
+        <v>-0.001258009181670461</v>
       </c>
       <c r="I35">
-        <v>0.005052657410526573</v>
+        <v>-0.001483097091473522</v>
       </c>
       <c r="J35">
-        <v>-0.0005600109799235954</v>
+        <v>-0.0009413441806105155</v>
       </c>
       <c r="K35">
-        <v>0.006901911465019115</v>
+        <v>0.02068166786182918</v>
       </c>
       <c r="L35">
-        <v>0.008686209758862098</v>
+        <v>0.04043349533983893</v>
       </c>
       <c r="M35">
-        <v>0.006901911465019115</v>
+        <v>0.02068166786182918</v>
       </c>
       <c r="N35">
-        <v>0.006901911465019115</v>
+        <v>0.02068166786182918</v>
+      </c>
+      <c r="O35">
+        <v>0.02068166786182918</v>
       </c>
       <c r="P35">
-        <v>-0.00433772604737726</v>
+        <v>-0.008370945091349823</v>
       </c>
       <c r="Q35">
-        <v>0.006249679778496798</v>
+        <v>0.0293533354705647</v>
       </c>
       <c r="R35">
-        <v>0.006249679778496798</v>
+        <v>0.0293533354705647</v>
       </c>
       <c r="S35">
-        <v>0.006249679778496798</v>
+        <v>0.0293533354705647</v>
       </c>
       <c r="T35">
-        <v>0.006249679778496798</v>
+        <v>0.0293533354705647</v>
       </c>
       <c r="U35">
-        <v>-0.002054367596543676</v>
+        <v>0.00669353522507496</v>
       </c>
       <c r="V35">
-        <v>-0.004479648788796488</v>
+        <v>0.01412319713527134</v>
       </c>
       <c r="W35">
-        <v>-0.0009744673177446731</v>
+        <v>0.005182289497713872</v>
       </c>
       <c r="X35">
-        <v>0.01004626672258469</v>
-      </c>
-      <c r="Y35">
-        <v>0.005329581215880809</v>
+        <v>0.008891276900384121</v>
       </c>
       <c r="Z35">
-        <v>0.009593638355936383</v>
+        <v>-0.005159647270414127</v>
       </c>
       <c r="AA35">
-        <v>0.005949312155493122</v>
+        <v>0.01947530927010487</v>
       </c>
       <c r="AB35">
-        <v>0.006070063620700636</v>
+        <v>0.01839253907420213</v>
       </c>
       <c r="AC35">
-        <v>0.005949312155493122</v>
+        <v>0.01947530927010487</v>
       </c>
       <c r="AD35">
-        <v>0.005949312155493122</v>
+        <v>0.01947530927010487</v>
       </c>
       <c r="AE35">
-        <v>0.01789293925959363</v>
+        <v>0.01947530927010487</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -3716,88 +3620,85 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>-0.004901083177010832</v>
+        <v>-0.005930096181608135</v>
       </c>
       <c r="D36">
-        <v>-0.00246730699267307</v>
+        <v>-0.02087408722916283</v>
       </c>
       <c r="E36">
-        <v>0.000241974098419741</v>
+        <v>0.00454754956480291</v>
       </c>
       <c r="F36">
-        <v>-0.004571710245717103</v>
+        <v>-0.01022477415834969</v>
       </c>
       <c r="G36">
-        <v>0.006767421439996017</v>
-      </c>
-      <c r="H36">
-        <v>0.003138058610517952</v>
+        <v>0.01111738274476512</v>
       </c>
       <c r="I36">
-        <v>0.0009380234493802345</v>
+        <v>-0.004682877983786619</v>
       </c>
       <c r="J36">
-        <v>-0.004120028080294277</v>
+        <v>0.001185757397362744</v>
       </c>
       <c r="K36">
-        <v>0.2998771837187718</v>
+        <v>0.5179254241383769</v>
       </c>
       <c r="L36">
-        <v>0.3560990336369904</v>
+        <v>0.8587451698183579</v>
       </c>
       <c r="M36">
-        <v>0.2998771837187718</v>
+        <v>0.5179254241383769</v>
       </c>
       <c r="N36">
-        <v>0.2998771837187718</v>
+        <v>0.5179254241383769</v>
+      </c>
+      <c r="O36">
+        <v>0.5179254241383769</v>
       </c>
       <c r="P36">
-        <v>0.03714493406344934</v>
+        <v>0.06081023631447079</v>
       </c>
       <c r="Q36">
-        <v>0.2788188060521881</v>
+        <v>0.6506540519650518</v>
       </c>
       <c r="R36">
-        <v>0.2788188060521881</v>
+        <v>0.6506540519650518</v>
       </c>
       <c r="S36">
-        <v>0.2788188060521881</v>
+        <v>0.6506540519650518</v>
       </c>
       <c r="T36">
-        <v>0.2788188060521881</v>
+        <v>0.6506540519650518</v>
       </c>
       <c r="U36">
-        <v>-0.002100960909009609</v>
+        <v>0.001918178995970497</v>
       </c>
       <c r="V36">
-        <v>0.007839102762391028</v>
+        <v>-0.01080611046216577</v>
       </c>
       <c r="W36">
-        <v>0.008659965638599658</v>
+        <v>0.007162635823752156</v>
       </c>
       <c r="X36">
-        <v>0.001419304199316492</v>
-      </c>
-      <c r="Y36">
-        <v>0.003432953940043853</v>
+        <v>-0.00540749651712027</v>
       </c>
       <c r="Z36">
-        <v>-0.004115392709153926</v>
+        <v>0.002374463056251419</v>
       </c>
       <c r="AA36">
-        <v>-0.03518104617981046</v>
+        <v>-0.1410376649306879</v>
       </c>
       <c r="AB36">
-        <v>-0.03588706735087067</v>
+        <v>-0.1540008070355282</v>
       </c>
       <c r="AC36">
-        <v>-0.03518104617981046</v>
+        <v>-0.1410376649306879</v>
       </c>
       <c r="AD36">
-        <v>-0.03518104617981046</v>
+        <v>-0.1410376649306879</v>
       </c>
       <c r="AE36">
-        <v>-0.03680469639198244</v>
+        <v>-0.1410376649306879</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -3808,88 +3709,85 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>0.01107023358270234</v>
+        <v>0.01360608758197096</v>
       </c>
       <c r="D37">
-        <v>-0.01519095769990958</v>
+        <v>0.014600622299292</v>
       </c>
       <c r="E37">
-        <v>0.004830123672301237</v>
+        <v>0.0261213209673688</v>
       </c>
       <c r="F37">
-        <v>-0.001810136934101369</v>
+        <v>-0.01326930283189672</v>
       </c>
       <c r="G37">
-        <v>0.003873374230977287</v>
-      </c>
-      <c r="H37">
-        <v>-0.006513043323652819</v>
+        <v>-0.002098224090213646</v>
       </c>
       <c r="I37">
-        <v>-0.006969084465690845</v>
+        <v>0.02642827551113486</v>
       </c>
       <c r="J37">
-        <v>0.0001063932855053586</v>
+        <v>0.01401167952256013</v>
       </c>
       <c r="K37">
-        <v>-0.00621082584210826</v>
+        <v>-0.01931486178863202</v>
       </c>
       <c r="L37">
-        <v>-0.005910587171105872</v>
+        <v>-0.005526403669482005</v>
       </c>
       <c r="M37">
-        <v>-0.00621082584210826</v>
+        <v>-0.01931486178863202</v>
       </c>
       <c r="N37">
-        <v>-0.00621082584210826</v>
+        <v>-0.01931486178863202</v>
+      </c>
+      <c r="O37">
+        <v>-0.01931486178863202</v>
       </c>
       <c r="P37">
-        <v>-0.002890050160900501</v>
+        <v>-0.0254363657981572</v>
       </c>
       <c r="Q37">
-        <v>-0.004513002261130022</v>
+        <v>-0.01659432216013077</v>
       </c>
       <c r="R37">
-        <v>-0.004513002261130022</v>
+        <v>-0.01659432216013077</v>
       </c>
       <c r="S37">
-        <v>-0.004513002261130022</v>
+        <v>-0.01659432216013077</v>
       </c>
       <c r="T37">
-        <v>-0.004513002261130022</v>
+        <v>-0.01659432216013077</v>
       </c>
       <c r="U37">
-        <v>0.003631643268316432</v>
+        <v>-0.0297048068107094</v>
       </c>
       <c r="V37">
-        <v>0.005649993452499933</v>
+        <v>0.003683227647014654</v>
       </c>
       <c r="W37">
-        <v>0.0182967203429672</v>
+        <v>-0.02845909207202725</v>
       </c>
       <c r="X37">
-        <v>0.005552584134350116</v>
-      </c>
-      <c r="Y37">
-        <v>0.01140984231877043</v>
+        <v>0.01750262757975348</v>
       </c>
       <c r="Z37">
-        <v>0.009141436159414361</v>
+        <v>-0.01116125828447734</v>
       </c>
       <c r="AA37">
-        <v>0.01002725591227256</v>
+        <v>0.02691806878231654</v>
       </c>
       <c r="AB37">
-        <v>0.009848431706484317</v>
+        <v>0.0253108597048427</v>
       </c>
       <c r="AC37">
-        <v>0.01002725591227256</v>
+        <v>0.02691806878231654</v>
       </c>
       <c r="AD37">
-        <v>0.01002725591227256</v>
+        <v>0.02691806878231654</v>
       </c>
       <c r="AE37">
-        <v>0.007999370043913854</v>
+        <v>0.02691806878231654</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -3900,88 +3798,85 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>-0.01211811914518119</v>
+        <v>-0.004049208353468717</v>
       </c>
       <c r="D38">
-        <v>-0.01165142259251423</v>
+        <v>0.02140781998821934</v>
       </c>
       <c r="E38">
-        <v>0.0008844832168448322</v>
+        <v>-0.007448893677817259</v>
       </c>
       <c r="F38">
-        <v>0.00301250298612503</v>
+        <v>-0.006191632021673649</v>
       </c>
       <c r="G38">
-        <v>-0.002612755139471222</v>
-      </c>
-      <c r="H38">
-        <v>0.01075165765937387</v>
+        <v>-0.01030541867706186</v>
       </c>
       <c r="I38">
-        <v>0.003113807407138074</v>
+        <v>0.02238781605106596</v>
       </c>
       <c r="J38">
-        <v>0.005986792392707126</v>
+        <v>0.01412162912614498</v>
       </c>
       <c r="K38">
-        <v>0.05277755456377554</v>
+        <v>0.09269733116240958</v>
       </c>
       <c r="L38">
-        <v>0.06525723400057235</v>
+        <v>0.1315550834241482</v>
       </c>
       <c r="M38">
-        <v>0.05277755456377554</v>
+        <v>0.09269733116240958</v>
       </c>
       <c r="N38">
-        <v>0.05277755456377554</v>
+        <v>0.09269733116240958</v>
+      </c>
+      <c r="O38">
+        <v>0.09269733116240958</v>
       </c>
       <c r="P38">
-        <v>0.008369023235690233</v>
+        <v>0.01677134725685083</v>
       </c>
       <c r="Q38">
-        <v>0.05005470332054704</v>
+        <v>0.1088564751454626</v>
       </c>
       <c r="R38">
-        <v>0.05005470332054704</v>
+        <v>0.1088564751454626</v>
       </c>
       <c r="S38">
-        <v>0.05005470332054704</v>
+        <v>0.1088564751454626</v>
       </c>
       <c r="T38">
-        <v>0.05005470332054704</v>
+        <v>0.1088564751454626</v>
       </c>
       <c r="U38">
-        <v>0.006355140927551409</v>
+        <v>-0.01279662094926697</v>
       </c>
       <c r="V38">
-        <v>0.007738465913384659</v>
+        <v>-0.02115339243719483</v>
       </c>
       <c r="W38">
-        <v>0.009801531866015319</v>
+        <v>-0.002616946688036509</v>
       </c>
       <c r="X38">
-        <v>-0.007429046039952302</v>
-      </c>
-      <c r="Y38">
-        <v>-0.007809259701483075</v>
+        <v>0.006775209103661282</v>
       </c>
       <c r="Z38">
-        <v>-0.003273802892738029</v>
+        <v>0.009905014707372524</v>
       </c>
       <c r="AA38">
-        <v>0.01392706569127066</v>
+        <v>0.0474515126974721</v>
       </c>
       <c r="AB38">
-        <v>0.01404368652843687</v>
+        <v>0.05273116913506508</v>
       </c>
       <c r="AC38">
-        <v>0.01392706569127066</v>
+        <v>0.0474515126974721</v>
       </c>
       <c r="AD38">
-        <v>0.01392706569127066</v>
+        <v>0.0474515126974721</v>
       </c>
       <c r="AE38">
-        <v>0.0199207771783701</v>
+        <v>0.0474515126974721</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -3992,88 +3887,85 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>0.01023156477031565</v>
+        <v>0.01765947779026636</v>
       </c>
       <c r="D39">
-        <v>0.007499023610990236</v>
+        <v>0.01299451482117451</v>
       </c>
       <c r="E39">
-        <v>-0.02025201334652013</v>
+        <v>0.02004152349172483</v>
       </c>
       <c r="F39">
-        <v>0.01539097167390972</v>
+        <v>-0.005995252305858892</v>
       </c>
       <c r="G39">
-        <v>-0.01168148422877783</v>
-      </c>
-      <c r="H39">
-        <v>0.01511702223431139</v>
+        <v>-0.02227714854732604</v>
       </c>
       <c r="I39">
-        <v>0.01455890576558906</v>
+        <v>0.01143719147646658</v>
       </c>
       <c r="J39">
-        <v>0.007045035267680204</v>
+        <v>-0.02900174446666052</v>
       </c>
       <c r="K39">
-        <v>0.01434452368744524</v>
+        <v>-0.01227499746846788</v>
       </c>
       <c r="L39">
-        <v>0.009320488845204889</v>
+        <v>0.003252547842477096</v>
       </c>
       <c r="M39">
-        <v>0.01434452368744524</v>
+        <v>-0.01227499746846788</v>
       </c>
       <c r="N39">
-        <v>0.01434452368744524</v>
+        <v>-0.01227499746846788</v>
+      </c>
+      <c r="O39">
+        <v>-0.01227499746846788</v>
       </c>
       <c r="P39">
-        <v>0.01537851293778513</v>
+        <v>-0.0175804886367745</v>
       </c>
       <c r="Q39">
-        <v>0.01294504236945042</v>
+        <v>-0.006055507730670536</v>
       </c>
       <c r="R39">
-        <v>0.01294504236945042</v>
+        <v>-0.006055507730670536</v>
       </c>
       <c r="S39">
-        <v>0.01294504236945042</v>
+        <v>-0.006055507730670536</v>
       </c>
       <c r="T39">
-        <v>0.01294504236945042</v>
+        <v>-0.006055507730670536</v>
       </c>
       <c r="U39">
-        <v>-0.004943615113436152</v>
+        <v>-0.003613869395108451</v>
       </c>
       <c r="V39">
-        <v>-0.007421300786213007</v>
+        <v>0.00711540952176925</v>
       </c>
       <c r="W39">
-        <v>0.007309103617091036</v>
+        <v>-0.007950078643856769</v>
       </c>
       <c r="X39">
-        <v>-0.01074058200485765</v>
-      </c>
-      <c r="Y39">
-        <v>-0.01782982852224078</v>
+        <v>0.008081089934896781</v>
       </c>
       <c r="Z39">
-        <v>-0.01355842658758427</v>
+        <v>-0.006891608235918672</v>
       </c>
       <c r="AA39">
-        <v>-0.01449881733698817</v>
+        <v>0.01603808184327985</v>
       </c>
       <c r="AB39">
-        <v>-0.01406173274061733</v>
+        <v>0.01483063206888309</v>
       </c>
       <c r="AC39">
-        <v>-0.01449881733698817</v>
+        <v>0.01603808184327985</v>
       </c>
       <c r="AD39">
-        <v>-0.01449881733698817</v>
+        <v>0.01603808184327985</v>
       </c>
       <c r="AE39">
-        <v>-0.005933020339722532</v>
+        <v>0.01603808184327985</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -4084,88 +3976,85 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>-0.009615802944158029</v>
+        <v>0.001709982182875041</v>
       </c>
       <c r="D40">
-        <v>-0.003414632878146329</v>
+        <v>-0.007009451807212346</v>
       </c>
       <c r="E40">
-        <v>-0.01658485853784859</v>
+        <v>0.009068848198651948</v>
       </c>
       <c r="F40">
-        <v>0.01197713325577133</v>
+        <v>-0.01229956313878576</v>
       </c>
       <c r="G40">
-        <v>-0.01409826010463884</v>
-      </c>
-      <c r="H40">
-        <v>0.01141022819146702</v>
+        <v>-0.002056732803325362</v>
       </c>
       <c r="I40">
-        <v>0.001716938897169389</v>
+        <v>-0.0147931213098815</v>
       </c>
       <c r="J40">
-        <v>-0.004988704234585176</v>
+        <v>-0.01323613526268357</v>
       </c>
       <c r="K40">
-        <v>0.00554194899141949</v>
+        <v>-0.003633384655350862</v>
       </c>
       <c r="L40">
-        <v>0.003611564556115646</v>
+        <v>0.001654944395620347</v>
       </c>
       <c r="M40">
-        <v>0.00554194899141949</v>
+        <v>-0.003633384655350862</v>
       </c>
       <c r="N40">
-        <v>0.00554194899141949</v>
+        <v>-0.003633384655350862</v>
+      </c>
+      <c r="O40">
+        <v>-0.003633384655350862</v>
       </c>
       <c r="P40">
-        <v>0.01318094096380941</v>
+        <v>-0.009292762853524187</v>
       </c>
       <c r="Q40">
-        <v>0.00564393489243935</v>
+        <v>-0.00125408718340229</v>
       </c>
       <c r="R40">
-        <v>0.00564393489243935</v>
+        <v>-0.00125408718340229</v>
       </c>
       <c r="S40">
-        <v>0.00564393489243935</v>
+        <v>-0.00125408718340229</v>
       </c>
       <c r="T40">
-        <v>0.00564393489243935</v>
+        <v>-0.00125408718340229</v>
       </c>
       <c r="U40">
-        <v>-0.00350120905101209</v>
+        <v>-0.0001035787401422895</v>
       </c>
       <c r="V40">
-        <v>-0.0138228298862283</v>
+        <v>0.01379869818654181</v>
       </c>
       <c r="W40">
-        <v>0.02015829824158298</v>
+        <v>0.001350971499164445</v>
       </c>
       <c r="X40">
-        <v>-0.0001801288135808476</v>
-      </c>
-      <c r="Y40">
-        <v>-0.006373463359240081</v>
+        <v>0.002753200894191974</v>
       </c>
       <c r="Z40">
-        <v>0.005159981895599819</v>
+        <v>-0.009277428607299893</v>
       </c>
       <c r="AA40">
-        <v>-0.009826917494269175</v>
+        <v>0.003317600874255333</v>
       </c>
       <c r="AB40">
-        <v>-0.009560705171607051</v>
+        <v>0.001851529969399036</v>
       </c>
       <c r="AC40">
-        <v>-0.009826917494269175</v>
+        <v>0.003317600874255333</v>
       </c>
       <c r="AD40">
-        <v>-0.009826917494269175</v>
+        <v>0.003317600874255333</v>
       </c>
       <c r="AE40">
-        <v>0.005388180042332706</v>
+        <v>0.003317600874255333</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4176,88 +4065,85 @@
         <v>84</v>
       </c>
       <c r="C41">
-        <v>-0.03174964618149647</v>
+        <v>-0.02484344385297403</v>
       </c>
       <c r="D41">
-        <v>-0.0122099903780999</v>
+        <v>0.0009648472149111569</v>
       </c>
       <c r="E41">
-        <v>0.0108264903962649</v>
+        <v>0.02531458873754495</v>
       </c>
       <c r="F41">
-        <v>-0.00712217909922179</v>
+        <v>-0.01245621147346426</v>
       </c>
       <c r="G41">
-        <v>0.007029641177239346</v>
-      </c>
-      <c r="H41">
-        <v>-0.01549352512441604</v>
+        <v>0.02570932789965494</v>
       </c>
       <c r="I41">
-        <v>-0.01953644149536441</v>
+        <v>0.00742617629157402</v>
       </c>
       <c r="J41">
-        <v>0.006220843258018712</v>
+        <v>0.005229547512755118</v>
       </c>
       <c r="K41">
-        <v>-0.01609179640091796</v>
+        <v>-0.03548046056562379</v>
       </c>
       <c r="L41">
-        <v>-0.01608498454084984</v>
+        <v>-0.0307999276903512</v>
       </c>
       <c r="M41">
-        <v>-0.01609179640091796</v>
+        <v>-0.03548046056562379</v>
       </c>
       <c r="N41">
-        <v>-0.01609179640091796</v>
+        <v>-0.03548046056562379</v>
+      </c>
+      <c r="O41">
+        <v>-0.03548046056562379</v>
       </c>
       <c r="P41">
-        <v>-0.009626664072266641</v>
+        <v>-0.02738365143795316</v>
       </c>
       <c r="Q41">
-        <v>-0.01343025275030253</v>
+        <v>-0.03646565558139257</v>
       </c>
       <c r="R41">
-        <v>-0.01343025275030253</v>
+        <v>-0.03646565558139257</v>
       </c>
       <c r="S41">
-        <v>-0.01343025275030253</v>
+        <v>-0.03646565558139257</v>
       </c>
       <c r="T41">
-        <v>-0.01343025275030253</v>
+        <v>-0.03646565558139257</v>
       </c>
       <c r="U41">
-        <v>0.007079312938793129</v>
+        <v>0.008859850281839344</v>
       </c>
       <c r="V41">
-        <v>-0.005704976373049764</v>
+        <v>0.01243846149080638</v>
       </c>
       <c r="W41">
-        <v>0.01926591151265911</v>
+        <v>-0.004939018635552976</v>
       </c>
       <c r="X41">
-        <v>0.01578762205878856</v>
-      </c>
-      <c r="Y41">
-        <v>0.0199938670676222</v>
+        <v>-0.003542700978983789</v>
       </c>
       <c r="Z41">
-        <v>0.01694538165745382</v>
+        <v>-0.006505838539322344</v>
       </c>
       <c r="AA41">
-        <v>0.01803884059238841</v>
+        <v>0.01435745275456332</v>
       </c>
       <c r="AB41">
-        <v>0.01802781556827816</v>
+        <v>0.01281259070663247</v>
       </c>
       <c r="AC41">
-        <v>0.01803884059238841</v>
+        <v>0.01435745275456332</v>
       </c>
       <c r="AD41">
-        <v>0.01803884059238841</v>
+        <v>0.01435745275456332</v>
       </c>
       <c r="AE41">
-        <v>0.004943890725346577</v>
+        <v>0.01435745275456332</v>
       </c>
     </row>
   </sheetData>
